--- a/jwang/case/ieee39_ev2.xlsx
+++ b/jwang/case/ieee39_ev2.xlsx
@@ -2236,7 +2236,7 @@
         <v>0.05</v>
       </c>
       <c r="I2" t="str">
-        <v>1.01</v>
+        <v>5</v>
       </c>
       <c r="J2" t="str">
         <v>0.1</v>
@@ -2277,7 +2277,7 @@
         <v>0.05</v>
       </c>
       <c r="I3" t="str">
-        <v>1.05</v>
+        <v>5</v>
       </c>
       <c r="J3" t="str">
         <v>0.1</v>
@@ -2318,7 +2318,7 @@
         <v>0.05</v>
       </c>
       <c r="I4" t="str">
-        <v>1.05</v>
+        <v>5</v>
       </c>
       <c r="J4" t="str">
         <v>0.1</v>
@@ -2359,7 +2359,7 @@
         <v>0.05</v>
       </c>
       <c r="I5" t="str">
-        <v>1.05</v>
+        <v>5</v>
       </c>
       <c r="J5" t="str">
         <v>0.1</v>
@@ -2400,7 +2400,7 @@
         <v>0.05</v>
       </c>
       <c r="I6" t="str">
-        <v>1.05</v>
+        <v>5</v>
       </c>
       <c r="J6" t="str">
         <v>0.1</v>
@@ -2441,7 +2441,7 @@
         <v>0.05</v>
       </c>
       <c r="I7" t="str">
-        <v>1.05</v>
+        <v>5</v>
       </c>
       <c r="J7" t="str">
         <v>0.1</v>
@@ -2482,7 +2482,7 @@
         <v>0.05</v>
       </c>
       <c r="I8" t="str">
-        <v>1.05</v>
+        <v>5</v>
       </c>
       <c r="J8" t="str">
         <v>0.1</v>
@@ -2523,7 +2523,7 @@
         <v>0.05</v>
       </c>
       <c r="I9" t="str">
-        <v>1.05</v>
+        <v>5</v>
       </c>
       <c r="J9" t="str">
         <v>0.1</v>
@@ -2564,7 +2564,7 @@
         <v>0.05</v>
       </c>
       <c r="I10" t="str">
-        <v>1.05</v>
+        <v>5</v>
       </c>
       <c r="J10" t="str">
         <v>0.1</v>
@@ -2605,7 +2605,7 @@
         <v>0.05</v>
       </c>
       <c r="I11" t="str">
-        <v>1.05</v>
+        <v>5</v>
       </c>
       <c r="J11" t="str">
         <v>0.1</v>
@@ -5428,7 +5428,7 @@
         <v>1.4</v>
       </c>
       <c r="K2" t="str">
-        <v>10.4</v>
+        <v>12</v>
       </c>
       <c r="L2" t="str">
         <v>0.1</v>
@@ -5484,7 +5484,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="str">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="L3" t="str">
         <v>0.1</v>
@@ -5540,7 +5540,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="str">
-        <v>7.5</v>
+        <v>10</v>
       </c>
       <c r="L4" t="str">
         <v>0.1</v>
@@ -5596,7 +5596,7 @@
         <v>1.5806</v>
       </c>
       <c r="K5" t="str">
-        <v>6.82</v>
+        <v>8</v>
       </c>
       <c r="L5" t="str">
         <v>0.1</v>
@@ -5652,7 +5652,7 @@
         <v>1.5854</v>
       </c>
       <c r="K6" t="str">
-        <v>5.5</v>
+        <v>8</v>
       </c>
       <c r="L6" t="str">
         <v>0.1</v>
@@ -5708,7 +5708,7 @@
         <v>2.5777</v>
       </c>
       <c r="K7" t="str">
-        <v>6.97</v>
+        <v>7</v>
       </c>
       <c r="L7" t="str">
         <v>0.1</v>
@@ -5764,7 +5764,7 @@
         <v>0.7876</v>
       </c>
       <c r="K8" t="str">
-        <v>5.95</v>
+        <v>7</v>
       </c>
       <c r="L8" t="str">
         <v>0.1</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="str">
-        <v>5.64</v>
+        <v>7</v>
       </c>
       <c r="L9" t="str">
         <v>0.1</v>
@@ -5876,7 +5876,7 @@
         <v>1.428</v>
       </c>
       <c r="K10" t="str">
-        <v>8.65</v>
+        <v>10</v>
       </c>
       <c r="L10" t="str">
         <v>0.1</v>
@@ -6349,10 +6349,10 @@
         <v>0.5617</v>
       </c>
       <c r="K2" t="str">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L2" t="str">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="M2" t="str">
         <v>5.7485</v>

--- a/jwang/case/ieee39_ev2.xlsx
+++ b/jwang/case/ieee39_ev2.xlsx
@@ -4504,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="str">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="G2" t="str">
         <v>BusFreq_2</v>

--- a/jwang/case/ieee39_ev2.xlsx
+++ b/jwang/case/ieee39_ev2.xlsx
@@ -4504,7 +4504,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="str">
-        <v>350</v>
+        <v>1</v>
       </c>
       <c r="G2" t="str">
         <v>BusFreq_2</v>
@@ -5428,7 +5428,7 @@
         <v>1.4</v>
       </c>
       <c r="K2" t="str">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L2" t="str">
         <v>0.1</v>
@@ -5484,7 +5484,7 @@
         <v>3</v>
       </c>
       <c r="K3" t="str">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L3" t="str">
         <v>0.1</v>
@@ -5540,7 +5540,7 @@
         <v>3</v>
       </c>
       <c r="K4" t="str">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L4" t="str">
         <v>0.1</v>
@@ -5596,7 +5596,7 @@
         <v>1.5806</v>
       </c>
       <c r="K5" t="str">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L5" t="str">
         <v>0.1</v>
@@ -5652,7 +5652,7 @@
         <v>1.5854</v>
       </c>
       <c r="K6" t="str">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="L6" t="str">
         <v>0.1</v>
@@ -5708,7 +5708,7 @@
         <v>2.5777</v>
       </c>
       <c r="K7" t="str">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L7" t="str">
         <v>0.1</v>
@@ -5764,7 +5764,7 @@
         <v>0.7876</v>
       </c>
       <c r="K8" t="str">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="L8" t="str">
         <v>0.1</v>
@@ -5820,7 +5820,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="str">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="L9" t="str">
         <v>0.1</v>
@@ -5876,7 +5876,7 @@
         <v>1.428</v>
       </c>
       <c r="K10" t="str">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L10" t="str">
         <v>0.1</v>
@@ -6349,7 +6349,7 @@
         <v>0.5617</v>
       </c>
       <c r="K2" t="str">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L2" t="str">
         <v>3</v>

--- a/jwang/case/ieee39_ev2.xlsx
+++ b/jwang/case/ieee39_ev2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/andes/jwang/case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4978F232-899A-7347-8C2B-3E7095999550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD51633-007D-1C43-BD83-292F34BA44D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3213" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="753">
   <si>
     <t>uid</t>
   </si>
@@ -4476,7 +4476,7 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4550,11 +4550,11 @@
       <c r="H2" t="s">
         <v>642</v>
       </c>
-      <c r="I2" t="s">
-        <v>34</v>
-      </c>
-      <c r="J2" t="s">
-        <v>245</v>
+      <c r="I2" s="2">
+        <v>1.01</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
       </c>
       <c r="K2" t="s">
         <v>642</v>
@@ -4594,11 +4594,11 @@
       <c r="H3" t="s">
         <v>642</v>
       </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" t="s">
-        <v>245</v>
+      <c r="I3" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
       </c>
       <c r="K3" t="s">
         <v>642</v>
@@ -4638,11 +4638,11 @@
       <c r="H4" t="s">
         <v>642</v>
       </c>
-      <c r="I4" t="s">
-        <v>34</v>
-      </c>
-      <c r="J4" t="s">
-        <v>245</v>
+      <c r="I4" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
       </c>
       <c r="K4" t="s">
         <v>642</v>
@@ -4682,11 +4682,11 @@
       <c r="H5" t="s">
         <v>642</v>
       </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>245</v>
+      <c r="I5" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
       </c>
       <c r="K5" t="s">
         <v>642</v>
@@ -4726,11 +4726,11 @@
       <c r="H6" t="s">
         <v>642</v>
       </c>
-      <c r="I6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J6" t="s">
-        <v>245</v>
+      <c r="I6" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
       </c>
       <c r="K6" t="s">
         <v>642</v>
@@ -4770,11 +4770,11 @@
       <c r="H7" t="s">
         <v>642</v>
       </c>
-      <c r="I7" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" t="s">
-        <v>245</v>
+      <c r="I7" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
       </c>
       <c r="K7" t="s">
         <v>642</v>
@@ -4814,11 +4814,11 @@
       <c r="H8" t="s">
         <v>642</v>
       </c>
-      <c r="I8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J8" t="s">
-        <v>245</v>
+      <c r="I8" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
       </c>
       <c r="K8" t="s">
         <v>642</v>
@@ -4858,11 +4858,11 @@
       <c r="H9" t="s">
         <v>642</v>
       </c>
-      <c r="I9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J9" t="s">
-        <v>245</v>
+      <c r="I9" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
       </c>
       <c r="K9" t="s">
         <v>642</v>
@@ -4902,11 +4902,11 @@
       <c r="H10" t="s">
         <v>642</v>
       </c>
-      <c r="I10" t="s">
-        <v>34</v>
-      </c>
-      <c r="J10" t="s">
-        <v>245</v>
+      <c r="I10" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
       </c>
       <c r="K10" t="s">
         <v>642</v>
@@ -4946,11 +4946,11 @@
       <c r="H11" t="s">
         <v>642</v>
       </c>
-      <c r="I11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J11" t="s">
-        <v>245</v>
+      <c r="I11" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
       </c>
       <c r="K11" t="s">
         <v>642</v>
@@ -4968,7 +4968,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:N1 A2:E11 G2:N11" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:N1 A2:E11 G2:H11 K3:N11 K2:N2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -7694,7 +7694,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -7785,11 +7787,11 @@
       <c r="J2" t="s">
         <v>244</v>
       </c>
-      <c r="K2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" t="s">
-        <v>245</v>
+      <c r="K2" s="2">
+        <v>12</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
       </c>
       <c r="M2" t="s">
         <v>246</v>
@@ -7841,11 +7843,11 @@
       <c r="J3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" t="s">
-        <v>245</v>
+      <c r="K3" s="2">
+        <v>7</v>
+      </c>
+      <c r="L3" s="2">
+        <v>0</v>
       </c>
       <c r="M3" t="s">
         <v>255</v>
@@ -7897,11 +7899,11 @@
       <c r="J4" t="s">
         <v>26</v>
       </c>
-      <c r="K4" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" t="s">
-        <v>245</v>
+      <c r="K4" s="2">
+        <v>8</v>
+      </c>
+      <c r="L4" s="2">
+        <v>0</v>
       </c>
       <c r="M4" t="s">
         <v>263</v>
@@ -7953,11 +7955,11 @@
       <c r="J5" t="s">
         <v>271</v>
       </c>
-      <c r="K5" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" t="s">
-        <v>245</v>
+      <c r="K5" s="2">
+        <v>7</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
       </c>
       <c r="M5" t="s">
         <v>272</v>
@@ -8009,11 +8011,11 @@
       <c r="J6" t="s">
         <v>280</v>
       </c>
-      <c r="K6" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" t="s">
-        <v>245</v>
+      <c r="K6" s="2">
+        <v>7</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
       </c>
       <c r="M6" t="s">
         <v>281</v>
@@ -8065,11 +8067,11 @@
       <c r="J7" t="s">
         <v>288</v>
       </c>
-      <c r="K7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" t="s">
-        <v>245</v>
+      <c r="K7" s="2">
+        <v>8</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
       </c>
       <c r="M7" t="s">
         <v>289</v>
@@ -8121,11 +8123,11 @@
       <c r="J8" t="s">
         <v>297</v>
       </c>
-      <c r="K8" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" t="s">
-        <v>245</v>
+      <c r="K8" s="2">
+        <v>7</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
       </c>
       <c r="M8" t="s">
         <v>298</v>
@@ -8177,11 +8179,11 @@
       <c r="J9" t="s">
         <v>14</v>
       </c>
-      <c r="K9" t="s">
-        <v>46</v>
-      </c>
-      <c r="L9" t="s">
-        <v>245</v>
+      <c r="K9" s="2">
+        <v>7</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
       </c>
       <c r="M9" t="s">
         <v>305</v>
@@ -8233,11 +8235,11 @@
       <c r="J10" t="s">
         <v>313</v>
       </c>
-      <c r="K10" t="s">
-        <v>62</v>
-      </c>
-      <c r="L10" t="s">
-        <v>245</v>
+      <c r="K10" s="2">
+        <v>10</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
       </c>
       <c r="M10" t="s">
         <v>314</v>
@@ -8320,7 +8322,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:S11" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:S1 A11:S11 A2:J10 M2:S10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8616,7 +8618,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -8710,8 +8714,8 @@
       <c r="J2" t="s">
         <v>380</v>
       </c>
-      <c r="K2" t="s">
-        <v>95</v>
+      <c r="K2" s="2">
+        <v>15</v>
       </c>
       <c r="L2" t="s">
         <v>26</v>
@@ -8744,7 +8748,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:T2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:T1 A2:J2 L2:T2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8865,7 +8869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>

--- a/jwang/case/ieee39_ev2.xlsx
+++ b/jwang/case/ieee39_ev2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/andes/jwang/case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD51633-007D-1C43-BD83-292F34BA44D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD3ADA6-5072-2E4F-B07F-8AB37991E648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1540" windowWidth="34560" windowHeight="19000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35860" yWindow="1600" windowWidth="34560" windowHeight="19000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3174" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3172" uniqueCount="752">
   <si>
     <t>uid</t>
   </si>
@@ -998,9 +998,6 @@
   </si>
   <si>
     <t>100</t>
-  </si>
-  <si>
-    <t>-0.5</t>
   </si>
   <si>
     <t>0.7</t>
@@ -2352,12 +2349,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4495,34 +4495,34 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F1" t="s">
         <v>631</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>632</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>633</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>634</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>635</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>636</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>637</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>638</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>639</v>
-      </c>
-      <c r="N1" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
@@ -4530,16 +4530,16 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="F2" t="s">
         <v>242</v>
@@ -4548,7 +4548,7 @@
         <v>15</v>
       </c>
       <c r="H2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I2" s="2">
         <v>1.01</v>
@@ -4557,13 +4557,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
+        <v>641</v>
+      </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
         <v>642</v>
-      </c>
-      <c r="L2" t="s">
-        <v>15</v>
-      </c>
-      <c r="M2" t="s">
-        <v>643</v>
       </c>
       <c r="N2" t="s">
         <v>14</v>
@@ -4574,16 +4574,16 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F3" t="s">
         <v>253</v>
@@ -4592,7 +4592,7 @@
         <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I3" s="2">
         <v>1.05</v>
@@ -4601,13 +4601,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
+        <v>641</v>
+      </c>
+      <c r="L3" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" t="s">
         <v>642</v>
-      </c>
-      <c r="L3" t="s">
-        <v>15</v>
-      </c>
-      <c r="M3" t="s">
-        <v>643</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -4618,16 +4618,16 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="F4" t="s">
         <v>261</v>
@@ -4636,7 +4636,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I4" s="2">
         <v>1.05</v>
@@ -4645,13 +4645,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
+        <v>641</v>
+      </c>
+      <c r="L4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" t="s">
         <v>642</v>
-      </c>
-      <c r="L4" t="s">
-        <v>15</v>
-      </c>
-      <c r="M4" t="s">
-        <v>643</v>
       </c>
       <c r="N4" t="s">
         <v>14</v>
@@ -4662,16 +4662,16 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F5" t="s">
         <v>269</v>
@@ -4680,7 +4680,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I5" s="2">
         <v>1.05</v>
@@ -4689,13 +4689,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
+        <v>641</v>
+      </c>
+      <c r="L5" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
         <v>642</v>
-      </c>
-      <c r="L5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" t="s">
-        <v>643</v>
       </c>
       <c r="N5" t="s">
         <v>14</v>
@@ -4706,16 +4706,16 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="F6" t="s">
         <v>278</v>
@@ -4724,7 +4724,7 @@
         <v>15</v>
       </c>
       <c r="H6" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I6" s="2">
         <v>1.05</v>
@@ -4733,13 +4733,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
+        <v>641</v>
+      </c>
+      <c r="L6" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" t="s">
         <v>642</v>
-      </c>
-      <c r="L6" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" t="s">
-        <v>643</v>
       </c>
       <c r="N6" t="s">
         <v>14</v>
@@ -4750,16 +4750,16 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="F7" t="s">
         <v>286</v>
@@ -4768,7 +4768,7 @@
         <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I7" s="2">
         <v>1.05</v>
@@ -4777,13 +4777,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="s">
+        <v>641</v>
+      </c>
+      <c r="L7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" t="s">
         <v>642</v>
-      </c>
-      <c r="L7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M7" t="s">
-        <v>643</v>
       </c>
       <c r="N7" t="s">
         <v>14</v>
@@ -4794,16 +4794,16 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="F8" t="s">
         <v>295</v>
@@ -4812,7 +4812,7 @@
         <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I8" s="2">
         <v>1.05</v>
@@ -4821,13 +4821,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
+        <v>641</v>
+      </c>
+      <c r="L8" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
         <v>642</v>
-      </c>
-      <c r="L8" t="s">
-        <v>15</v>
-      </c>
-      <c r="M8" t="s">
-        <v>643</v>
       </c>
       <c r="N8" t="s">
         <v>14</v>
@@ -4838,16 +4838,16 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F9" t="s">
         <v>303</v>
@@ -4856,7 +4856,7 @@
         <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I9" s="2">
         <v>1.05</v>
@@ -4865,13 +4865,13 @@
         <v>0</v>
       </c>
       <c r="K9" t="s">
+        <v>641</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" t="s">
         <v>642</v>
-      </c>
-      <c r="L9" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" t="s">
-        <v>643</v>
       </c>
       <c r="N9" t="s">
         <v>14</v>
@@ -4882,16 +4882,16 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F10" t="s">
         <v>311</v>
@@ -4900,7 +4900,7 @@
         <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I10" s="2">
         <v>1.05</v>
@@ -4909,13 +4909,13 @@
         <v>0</v>
       </c>
       <c r="K10" t="s">
+        <v>641</v>
+      </c>
+      <c r="L10" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" t="s">
         <v>642</v>
-      </c>
-      <c r="L10" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" t="s">
-        <v>643</v>
       </c>
       <c r="N10" t="s">
         <v>14</v>
@@ -4926,25 +4926,25 @@
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I11" s="2">
         <v>1.05</v>
@@ -4953,13 +4953,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
+        <v>641</v>
+      </c>
+      <c r="L11" t="s">
+        <v>15</v>
+      </c>
+      <c r="M11" t="s">
         <v>642</v>
-      </c>
-      <c r="L11" t="s">
-        <v>15</v>
-      </c>
-      <c r="M11" t="s">
-        <v>643</v>
       </c>
       <c r="N11" t="s">
         <v>14</v>
@@ -4995,52 +4995,52 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="F1" t="s">
+        <v>652</v>
+      </c>
+      <c r="G1" t="s">
         <v>653</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>654</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>655</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>656</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>657</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>658</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>659</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>660</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>661</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>662</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>663</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>664</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>665</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>666</v>
-      </c>
-      <c r="T1" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.2">
@@ -5048,55 +5048,55 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>667</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E2" t="s">
+        <v>564</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>627</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
         <v>668</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>668</v>
-      </c>
-      <c r="E2" t="s">
-        <v>565</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>628</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>669</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>670</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>671</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>672</v>
-      </c>
-      <c r="N2" t="s">
-        <v>673</v>
       </c>
       <c r="O2" t="s">
         <v>46</v>
       </c>
       <c r="P2" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q2" t="s">
         <v>674</v>
       </c>
-      <c r="Q2" t="s">
-        <v>675</v>
-      </c>
       <c r="R2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="S2" t="s">
         <v>26</v>
@@ -5110,22 +5110,22 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H3" t="s">
         <v>14</v>
@@ -5134,37 +5134,37 @@
         <v>14</v>
       </c>
       <c r="J3" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="K3" t="s">
+        <v>669</v>
+      </c>
+      <c r="L3" t="s">
         <v>670</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>671</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>672</v>
-      </c>
-      <c r="N3" t="s">
-        <v>673</v>
       </c>
       <c r="O3" t="s">
         <v>279</v>
       </c>
       <c r="P3" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Q3" t="s">
         <v>26</v>
       </c>
       <c r="R3" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="S3" t="s">
         <v>30</v>
       </c>
       <c r="T3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -5172,61 +5172,61 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
+        <v>678</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>678</v>
+      </c>
+      <c r="E4" t="s">
+        <v>581</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>627</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" t="s">
+        <v>375</v>
+      </c>
+      <c r="K4" t="s">
+        <v>669</v>
+      </c>
+      <c r="L4" t="s">
+        <v>670</v>
+      </c>
+      <c r="M4" t="s">
+        <v>671</v>
+      </c>
+      <c r="N4" t="s">
         <v>679</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>679</v>
-      </c>
-      <c r="E4" t="s">
-        <v>582</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>628</v>
-      </c>
-      <c r="H4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" t="s">
-        <v>376</v>
-      </c>
-      <c r="K4" t="s">
-        <v>670</v>
-      </c>
-      <c r="L4" t="s">
-        <v>671</v>
-      </c>
-      <c r="M4" t="s">
-        <v>672</v>
-      </c>
-      <c r="N4" t="s">
-        <v>680</v>
       </c>
       <c r="O4" t="s">
         <v>34</v>
       </c>
       <c r="P4" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Q4" t="s">
         <v>26</v>
       </c>
       <c r="R4" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="S4" t="s">
         <v>30</v>
       </c>
       <c r="T4" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -5234,22 +5234,22 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
       </c>
       <c r="G5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="H5" t="s">
         <v>14</v>
@@ -5258,37 +5258,37 @@
         <v>14</v>
       </c>
       <c r="J5" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="K5" t="s">
+        <v>669</v>
+      </c>
+      <c r="L5" t="s">
         <v>670</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>671</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>672</v>
-      </c>
-      <c r="N5" t="s">
-        <v>673</v>
       </c>
       <c r="O5" t="s">
         <v>34</v>
       </c>
       <c r="P5" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Q5" t="s">
         <v>26</v>
       </c>
       <c r="R5" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="S5" t="s">
         <v>30</v>
       </c>
       <c r="T5" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -5296,61 +5296,61 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
+        <v>684</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>684</v>
+      </c>
+      <c r="E6" t="s">
+        <v>594</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
+        <v>374</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" t="s">
         <v>685</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>685</v>
-      </c>
-      <c r="E6" t="s">
-        <v>595</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>375</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>14</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
+        <v>669</v>
+      </c>
+      <c r="L6" t="s">
+        <v>670</v>
+      </c>
+      <c r="M6" t="s">
+        <v>524</v>
+      </c>
+      <c r="N6" t="s">
         <v>686</v>
       </c>
-      <c r="K6" t="s">
-        <v>670</v>
-      </c>
-      <c r="L6" t="s">
-        <v>671</v>
-      </c>
-      <c r="M6" t="s">
-        <v>525</v>
-      </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>687</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
         <v>688</v>
-      </c>
-      <c r="P6" t="s">
-        <v>689</v>
       </c>
       <c r="Q6" t="s">
         <v>26</v>
       </c>
       <c r="R6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="S6" t="s">
         <v>30</v>
       </c>
       <c r="T6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -5358,40 +5358,40 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
+        <v>690</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
+        <v>690</v>
+      </c>
+      <c r="E7" t="s">
+        <v>601</v>
+      </c>
+      <c r="F7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" t="s">
+        <v>374</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="s">
         <v>691</v>
       </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" t="s">
-        <v>691</v>
-      </c>
-      <c r="E7" t="s">
-        <v>602</v>
-      </c>
-      <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s">
-        <v>375</v>
-      </c>
-      <c r="H7" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" t="s">
-        <v>692</v>
-      </c>
       <c r="K7" t="s">
+        <v>669</v>
+      </c>
+      <c r="L7" t="s">
         <v>670</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>671</v>
-      </c>
-      <c r="M7" t="s">
-        <v>672</v>
       </c>
       <c r="N7" t="s">
         <v>15</v>
@@ -5400,19 +5400,19 @@
         <v>34</v>
       </c>
       <c r="P7" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Q7" t="s">
         <v>26</v>
       </c>
       <c r="R7" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="S7" t="s">
         <v>30</v>
       </c>
       <c r="T7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -5420,61 +5420,61 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
+        <v>692</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>692</v>
+      </c>
+      <c r="E8" t="s">
+        <v>607</v>
+      </c>
+      <c r="F8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" t="s">
+        <v>374</v>
+      </c>
+      <c r="H8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" t="s">
         <v>693</v>
       </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>693</v>
-      </c>
-      <c r="E8" t="s">
-        <v>608</v>
-      </c>
-      <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s">
-        <v>375</v>
-      </c>
-      <c r="H8" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
+        <v>669</v>
+      </c>
+      <c r="L8" t="s">
+        <v>670</v>
+      </c>
+      <c r="M8" t="s">
+        <v>524</v>
+      </c>
+      <c r="N8" t="s">
+        <v>15</v>
+      </c>
+      <c r="O8" t="s">
         <v>694</v>
       </c>
-      <c r="K8" t="s">
-        <v>670</v>
-      </c>
-      <c r="L8" t="s">
-        <v>671</v>
-      </c>
-      <c r="M8" t="s">
-        <v>525</v>
-      </c>
-      <c r="N8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
         <v>695</v>
-      </c>
-      <c r="P8" t="s">
-        <v>696</v>
       </c>
       <c r="Q8" t="s">
         <v>26</v>
       </c>
       <c r="R8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="S8" t="s">
         <v>30</v>
       </c>
       <c r="T8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -5482,61 +5482,61 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
+        <v>697</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>697</v>
+      </c>
+      <c r="E9" t="s">
+        <v>613</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" t="s">
+        <v>374</v>
+      </c>
+      <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" t="s">
         <v>698</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" t="s">
-        <v>698</v>
-      </c>
-      <c r="E9" t="s">
-        <v>614</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s">
-        <v>375</v>
-      </c>
-      <c r="H9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J9" t="s">
-        <v>699</v>
-      </c>
       <c r="K9" t="s">
+        <v>669</v>
+      </c>
+      <c r="L9" t="s">
         <v>670</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>671</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>672</v>
-      </c>
-      <c r="N9" t="s">
-        <v>673</v>
       </c>
       <c r="O9" t="s">
         <v>34</v>
       </c>
       <c r="P9" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="Q9" t="s">
         <v>26</v>
       </c>
       <c r="R9" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="S9" t="s">
         <v>30</v>
       </c>
       <c r="T9" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -5544,22 +5544,22 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="E10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F10" t="s">
         <v>14</v>
       </c>
       <c r="G10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H10" t="s">
         <v>14</v>
@@ -5568,37 +5568,37 @@
         <v>14</v>
       </c>
       <c r="J10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K10" t="s">
+        <v>669</v>
+      </c>
+      <c r="L10" t="s">
         <v>670</v>
       </c>
-      <c r="L10" t="s">
-        <v>671</v>
-      </c>
       <c r="M10" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="N10" t="s">
         <v>15</v>
       </c>
       <c r="O10" t="s">
+        <v>687</v>
+      </c>
+      <c r="P10" t="s">
         <v>688</v>
-      </c>
-      <c r="P10" t="s">
-        <v>689</v>
       </c>
       <c r="Q10" t="s">
         <v>26</v>
       </c>
       <c r="R10" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="S10" t="s">
         <v>30</v>
       </c>
       <c r="T10" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -5606,22 +5606,22 @@
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="E11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="F11" t="s">
         <v>14</v>
       </c>
       <c r="G11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H11" t="s">
         <v>14</v>
@@ -5630,37 +5630,37 @@
         <v>14</v>
       </c>
       <c r="J11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="K11" t="s">
+        <v>669</v>
+      </c>
+      <c r="L11" t="s">
         <v>670</v>
       </c>
-      <c r="L11" t="s">
+      <c r="M11" t="s">
         <v>671</v>
       </c>
-      <c r="M11" t="s">
-        <v>672</v>
-      </c>
       <c r="N11" t="s">
         <v>15</v>
       </c>
       <c r="O11" t="s">
+        <v>687</v>
+      </c>
+      <c r="P11" t="s">
         <v>688</v>
-      </c>
-      <c r="P11" t="s">
-        <v>689</v>
       </c>
       <c r="Q11" t="s">
         <v>26</v>
       </c>
       <c r="R11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="S11" t="s">
         <v>30</v>
       </c>
       <c r="T11" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -5693,67 +5693,67 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>703</v>
+      </c>
+      <c r="F1" t="s">
         <v>704</v>
-      </c>
-      <c r="F1" t="s">
-        <v>705</v>
       </c>
       <c r="G1" t="s">
         <v>234</v>
       </c>
       <c r="H1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I1" t="s">
+        <v>705</v>
+      </c>
+      <c r="J1" t="s">
         <v>706</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>707</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>708</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>709</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>710</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
+        <v>636</v>
+      </c>
+      <c r="P1" t="s">
+        <v>637</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>638</v>
+      </c>
+      <c r="R1" t="s">
         <v>711</v>
       </c>
-      <c r="O1" t="s">
-        <v>637</v>
-      </c>
-      <c r="P1" t="s">
-        <v>638</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>639</v>
-      </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>712</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>713</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>714</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>715</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>716</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>717</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>718</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.2">
@@ -5761,67 +5761,67 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="E2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="F2" t="s">
         <v>26</v>
       </c>
       <c r="H2" t="s">
+        <v>720</v>
+      </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" t="s">
+        <v>14</v>
+      </c>
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" t="s">
+        <v>407</v>
+      </c>
+      <c r="S2" t="s">
+        <v>15</v>
+      </c>
+      <c r="T2" t="s">
         <v>721</v>
       </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
-        <v>14</v>
-      </c>
-      <c r="N2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" t="s">
-        <v>408</v>
-      </c>
-      <c r="S2" t="s">
-        <v>15</v>
-      </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>722</v>
-      </c>
-      <c r="U2" t="s">
-        <v>723</v>
       </c>
       <c r="V2" t="s">
         <v>245</v>
       </c>
       <c r="W2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="X2" t="s">
         <v>14</v>
@@ -5835,22 +5835,22 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E3" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
       </c>
       <c r="H3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I3" t="s">
         <v>14</v>
@@ -5880,22 +5880,22 @@
         <v>14</v>
       </c>
       <c r="R3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S3" t="s">
         <v>15</v>
       </c>
       <c r="T3" t="s">
+        <v>721</v>
+      </c>
+      <c r="U3" t="s">
         <v>722</v>
-      </c>
-      <c r="U3" t="s">
-        <v>723</v>
       </c>
       <c r="V3" t="s">
         <v>245</v>
       </c>
       <c r="W3" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="X3" t="s">
         <v>14</v>
@@ -5909,22 +5909,22 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="E4" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="F4" t="s">
         <v>26</v>
       </c>
       <c r="H4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I4" t="s">
         <v>14</v>
@@ -5954,22 +5954,22 @@
         <v>14</v>
       </c>
       <c r="R4" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S4" t="s">
         <v>15</v>
       </c>
       <c r="T4" t="s">
+        <v>721</v>
+      </c>
+      <c r="U4" t="s">
         <v>722</v>
-      </c>
-      <c r="U4" t="s">
-        <v>723</v>
       </c>
       <c r="V4" t="s">
         <v>245</v>
       </c>
       <c r="W4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="X4" t="s">
         <v>14</v>
@@ -5983,22 +5983,22 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="E5" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="F5" t="s">
         <v>26</v>
       </c>
       <c r="H5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I5" t="s">
         <v>14</v>
@@ -6028,22 +6028,22 @@
         <v>14</v>
       </c>
       <c r="R5" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S5" t="s">
         <v>15</v>
       </c>
       <c r="T5" t="s">
+        <v>721</v>
+      </c>
+      <c r="U5" t="s">
         <v>722</v>
-      </c>
-      <c r="U5" t="s">
-        <v>723</v>
       </c>
       <c r="V5" t="s">
         <v>245</v>
       </c>
       <c r="W5" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="X5" t="s">
         <v>14</v>
@@ -6057,22 +6057,22 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="F6" t="s">
         <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I6" t="s">
         <v>14</v>
@@ -6102,22 +6102,22 @@
         <v>14</v>
       </c>
       <c r="R6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S6" t="s">
         <v>15</v>
       </c>
       <c r="T6" t="s">
+        <v>721</v>
+      </c>
+      <c r="U6" t="s">
         <v>722</v>
-      </c>
-      <c r="U6" t="s">
-        <v>723</v>
       </c>
       <c r="V6" t="s">
         <v>245</v>
       </c>
       <c r="W6" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="X6" t="s">
         <v>14</v>
@@ -6131,22 +6131,22 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="F7" t="s">
         <v>26</v>
       </c>
       <c r="H7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I7" t="s">
         <v>14</v>
@@ -6176,22 +6176,22 @@
         <v>14</v>
       </c>
       <c r="R7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S7" t="s">
         <v>15</v>
       </c>
       <c r="T7" t="s">
+        <v>721</v>
+      </c>
+      <c r="U7" t="s">
         <v>722</v>
-      </c>
-      <c r="U7" t="s">
-        <v>723</v>
       </c>
       <c r="V7" t="s">
         <v>245</v>
       </c>
       <c r="W7" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="X7" t="s">
         <v>14</v>
@@ -6205,22 +6205,22 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="E8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="F8" t="s">
         <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I8" t="s">
         <v>14</v>
@@ -6250,22 +6250,22 @@
         <v>14</v>
       </c>
       <c r="R8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S8" t="s">
         <v>15</v>
       </c>
       <c r="T8" t="s">
+        <v>721</v>
+      </c>
+      <c r="U8" t="s">
         <v>722</v>
-      </c>
-      <c r="U8" t="s">
-        <v>723</v>
       </c>
       <c r="V8" t="s">
         <v>245</v>
       </c>
       <c r="W8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="X8" t="s">
         <v>14</v>
@@ -6279,22 +6279,22 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="E9" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F9" t="s">
         <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I9" t="s">
         <v>14</v>
@@ -6324,22 +6324,22 @@
         <v>14</v>
       </c>
       <c r="R9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S9" t="s">
         <v>15</v>
       </c>
       <c r="T9" t="s">
+        <v>721</v>
+      </c>
+      <c r="U9" t="s">
         <v>722</v>
-      </c>
-      <c r="U9" t="s">
-        <v>723</v>
       </c>
       <c r="V9" t="s">
         <v>245</v>
       </c>
       <c r="W9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="X9" t="s">
         <v>14</v>
@@ -6353,22 +6353,22 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="E10" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="F10" t="s">
         <v>26</v>
       </c>
       <c r="H10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I10" t="s">
         <v>14</v>
@@ -6398,22 +6398,22 @@
         <v>14</v>
       </c>
       <c r="R10" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S10" t="s">
         <v>15</v>
       </c>
       <c r="T10" t="s">
+        <v>721</v>
+      </c>
+      <c r="U10" t="s">
         <v>722</v>
-      </c>
-      <c r="U10" t="s">
-        <v>723</v>
       </c>
       <c r="V10" t="s">
         <v>245</v>
       </c>
       <c r="W10" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="X10" t="s">
         <v>14</v>
@@ -6427,22 +6427,22 @@
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E11" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="F11" t="s">
         <v>26</v>
       </c>
       <c r="H11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="I11" t="s">
         <v>14</v>
@@ -6472,22 +6472,22 @@
         <v>14</v>
       </c>
       <c r="R11" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="S11" t="s">
         <v>15</v>
       </c>
       <c r="T11" t="s">
+        <v>721</v>
+      </c>
+      <c r="U11" t="s">
         <v>722</v>
-      </c>
-      <c r="U11" t="s">
-        <v>723</v>
       </c>
       <c r="V11" t="s">
         <v>245</v>
       </c>
       <c r="W11" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="X11" t="s">
         <v>14</v>
@@ -6529,13 +6529,13 @@
         <v>178</v>
       </c>
       <c r="F1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G1" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="H1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -6543,25 +6543,25 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="E2" t="s">
         <v>135</v>
       </c>
       <c r="F2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -6569,25 +6569,25 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="E3" t="s">
         <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -6595,25 +6595,25 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E4" t="s">
         <v>144</v>
       </c>
       <c r="F4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -6621,25 +6621,25 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="E5" t="s">
         <v>148</v>
       </c>
       <c r="F5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -6647,25 +6647,25 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="E6" t="s">
         <v>152</v>
       </c>
       <c r="F6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -6673,25 +6673,25 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="E7" t="s">
         <v>157</v>
       </c>
       <c r="F7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G7" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -6699,25 +6699,25 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="E8" t="s">
         <v>161</v>
       </c>
       <c r="F8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -6725,25 +6725,25 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E9" t="s">
         <v>166</v>
       </c>
       <c r="F9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -6751,25 +6751,25 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E10" t="s">
         <v>170</v>
       </c>
       <c r="F10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -6777,25 +6777,25 @@
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="E11" t="s">
         <v>174</v>
       </c>
       <c r="F11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -6831,10 +6831,10 @@
         <v>178</v>
       </c>
       <c r="F1" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -6848,7 +6848,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -6857,7 +6857,7 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -6890,13 +6890,13 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>744</v>
+      </c>
+      <c r="F1" t="s">
         <v>745</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>746</v>
-      </c>
-      <c r="G1" t="s">
-        <v>747</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -6904,19 +6904,19 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>747</v>
+      </c>
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
+        <v>747</v>
+      </c>
+      <c r="E2" t="s">
         <v>748</v>
       </c>
-      <c r="C2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" t="s">
-        <v>748</v>
-      </c>
-      <c r="E2" t="s">
-        <v>749</v>
-      </c>
       <c r="F2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="G2" t="s">
         <v>62</v>
@@ -6957,13 +6957,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
   </sheetData>
@@ -7695,7 +7695,7 @@
   <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="P18" sqref="P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7788,10 +7788,10 @@
         <v>244</v>
       </c>
       <c r="K2" s="2">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="L2" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2" t="s">
         <v>246</v>
@@ -7844,10 +7844,10 @@
         <v>26</v>
       </c>
       <c r="K3" s="2">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="L3" s="2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M3" t="s">
         <v>255</v>
@@ -7903,7 +7903,7 @@
         <v>8</v>
       </c>
       <c r="L4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="s">
         <v>263</v>
@@ -7959,7 +7959,7 @@
         <v>7</v>
       </c>
       <c r="L5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" t="s">
         <v>272</v>
@@ -8015,7 +8015,7 @@
         <v>7</v>
       </c>
       <c r="L6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="s">
         <v>281</v>
@@ -8071,7 +8071,7 @@
         <v>8</v>
       </c>
       <c r="L7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="s">
         <v>289</v>
@@ -8127,7 +8127,7 @@
         <v>7</v>
       </c>
       <c r="L8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="s">
         <v>298</v>
@@ -8183,7 +8183,7 @@
         <v>7</v>
       </c>
       <c r="L9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="s">
         <v>305</v>
@@ -8239,7 +8239,7 @@
         <v>10</v>
       </c>
       <c r="L10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="s">
         <v>314</v>
@@ -8285,17 +8285,17 @@
       <c r="G11" t="s">
         <v>170</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="3">
+        <v>-0.5</v>
+      </c>
+      <c r="J11" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" t="s">
         <v>321</v>
       </c>
-      <c r="J11" t="s">
-        <v>14</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>322</v>
-      </c>
-      <c r="L11" t="s">
-        <v>323</v>
       </c>
       <c r="M11" t="s">
         <v>14</v>
@@ -8322,7 +8322,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:S1 A11:S11 A2:J10 M2:S10" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:S1 A11:H11 A2:J10 M2:S10 J11:S11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8331,7 +8331,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AS2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AS3" sqref="AS3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -8352,124 +8354,124 @@
         <v>178</v>
       </c>
       <c r="F1" t="s">
+        <v>323</v>
+      </c>
+      <c r="G1" t="s">
         <v>324</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>325</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>326</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>327</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>328</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>329</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>330</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>331</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>332</v>
-      </c>
-      <c r="O1" t="s">
-        <v>333</v>
       </c>
       <c r="P1" t="s">
         <v>233</v>
       </c>
       <c r="Q1" t="s">
+        <v>333</v>
+      </c>
+      <c r="R1" t="s">
         <v>334</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>335</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>336</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>337</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>338</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>339</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>340</v>
-      </c>
-      <c r="X1" t="s">
-        <v>341</v>
       </c>
       <c r="Y1" t="s">
         <v>7</v>
       </c>
       <c r="Z1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AA1" t="s">
         <v>342</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>343</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>344</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>345</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>346</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>347</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>348</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>349</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>350</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AJ1" t="s">
         <v>351</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>352</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>353</v>
       </c>
-      <c r="AL1" t="s">
+      <c r="AM1" t="s">
         <v>354</v>
       </c>
-      <c r="AM1" t="s">
+      <c r="AN1" t="s">
         <v>355</v>
       </c>
-      <c r="AN1" t="s">
+      <c r="AO1" t="s">
         <v>356</v>
       </c>
-      <c r="AO1" t="s">
+      <c r="AP1" t="s">
         <v>357</v>
       </c>
-      <c r="AP1" t="s">
+      <c r="AQ1" t="s">
         <v>358</v>
       </c>
-      <c r="AQ1" t="s">
+      <c r="AR1" t="s">
         <v>359</v>
       </c>
-      <c r="AR1" t="s">
+      <c r="AS1" t="s">
         <v>360</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.2">
@@ -8477,13 +8479,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E2" t="s">
         <v>170</v>
@@ -8501,10 +8503,10 @@
         <v>15</v>
       </c>
       <c r="J2" t="s">
+        <v>362</v>
+      </c>
+      <c r="K2" t="s">
         <v>363</v>
-      </c>
-      <c r="K2" t="s">
-        <v>364</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -8516,19 +8518,19 @@
         <v>19</v>
       </c>
       <c r="O2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="P2" t="s">
         <v>320</v>
       </c>
       <c r="Q2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R2" t="s">
+        <v>365</v>
+      </c>
+      <c r="S2" t="s">
         <v>366</v>
-      </c>
-      <c r="S2" t="s">
-        <v>367</v>
       </c>
       <c r="T2" t="s">
         <v>14</v>
@@ -8549,16 +8551,16 @@
         <v>18</v>
       </c>
       <c r="AA2" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB2" t="s">
         <v>368</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>369</v>
       </c>
       <c r="AC2" t="s">
         <v>30</v>
       </c>
       <c r="AD2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AE2" t="s">
         <v>19</v>
@@ -8573,25 +8575,25 @@
         <v>14</v>
       </c>
       <c r="AI2" t="s">
+        <v>370</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>371</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>372</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>373</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN2" t="s">
         <v>374</v>
       </c>
-      <c r="AM2" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN2" t="s">
-        <v>375</v>
-      </c>
       <c r="AO2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AP2" t="s">
         <v>15</v>
@@ -8602,14 +8604,14 @@
       <c r="AR2" t="s">
         <v>19</v>
       </c>
-      <c r="AS2" t="s">
-        <v>376</v>
+      <c r="AS2">
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AS2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:AS1 A2:AR2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8691,16 +8693,16 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>376</v>
+      </c>
+      <c r="E2" t="s">
         <v>377</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>377</v>
-      </c>
-      <c r="E2" t="s">
-        <v>378</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -8709,10 +8711,10 @@
         <v>174</v>
       </c>
       <c r="I2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J2" t="s">
         <v>379</v>
-      </c>
-      <c r="J2" t="s">
-        <v>380</v>
       </c>
       <c r="K2" s="2">
         <v>15</v>
@@ -8721,10 +8723,10 @@
         <v>26</v>
       </c>
       <c r="M2" t="s">
+        <v>380</v>
+      </c>
+      <c r="N2" t="s">
         <v>381</v>
-      </c>
-      <c r="N2" t="s">
-        <v>382</v>
       </c>
       <c r="O2" t="s">
         <v>176</v>
@@ -8736,10 +8738,10 @@
         <v>249</v>
       </c>
       <c r="R2" t="s">
+        <v>382</v>
+      </c>
+      <c r="S2" t="s">
         <v>383</v>
-      </c>
-      <c r="S2" t="s">
-        <v>384</v>
       </c>
       <c r="T2" t="s">
         <v>177</v>
@@ -8784,13 +8786,13 @@
         <v>4</v>
       </c>
       <c r="H1" t="s">
+        <v>384</v>
+      </c>
+      <c r="I1" t="s">
         <v>385</v>
       </c>
-      <c r="I1" t="s">
-        <v>386</v>
-      </c>
       <c r="J1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -8798,13 +8800,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
@@ -8822,7 +8824,7 @@
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -8830,13 +8832,13 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E3" t="s">
         <v>34</v>
@@ -8854,7 +8856,7 @@
         <v>22</v>
       </c>
       <c r="J3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -8889,55 +8891,55 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>388</v>
+      </c>
+      <c r="F1" t="s">
         <v>389</v>
-      </c>
-      <c r="F1" t="s">
-        <v>390</v>
       </c>
       <c r="G1" t="s">
         <v>233</v>
       </c>
       <c r="H1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J1" t="s">
         <v>391</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>392</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>393</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>385</v>
+      </c>
+      <c r="N1" t="s">
+        <v>384</v>
+      </c>
+      <c r="O1" t="s">
         <v>394</v>
       </c>
-      <c r="M1" t="s">
-        <v>386</v>
-      </c>
-      <c r="N1" t="s">
-        <v>385</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>395</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>396</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>397</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>398</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>399</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>400</v>
-      </c>
-      <c r="U1" t="s">
-        <v>401</v>
       </c>
       <c r="V1" t="s">
         <v>13</v>
@@ -8949,13 +8951,13 @@
         <v>10</v>
       </c>
       <c r="Y1" s="1" t="s">
+        <v>749</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>750</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>752</v>
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
@@ -8963,13 +8965,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E2" t="s">
         <v>15</v>
@@ -8981,7 +8983,7 @@
         <v>320</v>
       </c>
       <c r="H2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I2" t="s">
         <v>17</v>
@@ -8990,13 +8992,13 @@
         <v>17</v>
       </c>
       <c r="K2" t="s">
+        <v>402</v>
+      </c>
+      <c r="L2" t="s">
         <v>403</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>404</v>
-      </c>
-      <c r="M2" t="s">
-        <v>405</v>
       </c>
       <c r="N2" t="s">
         <v>14</v>
@@ -9037,13 +9039,13 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -9055,7 +9057,7 @@
         <v>320</v>
       </c>
       <c r="H3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I3" t="s">
         <v>17</v>
@@ -9064,13 +9066,13 @@
         <v>17</v>
       </c>
       <c r="K3" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L3" t="s">
+        <v>406</v>
+      </c>
+      <c r="M3" t="s">
         <v>407</v>
-      </c>
-      <c r="M3" t="s">
-        <v>408</v>
       </c>
       <c r="N3" t="s">
         <v>14</v>
@@ -9111,13 +9113,13 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E4" t="s">
         <v>22</v>
@@ -9129,7 +9131,7 @@
         <v>320</v>
       </c>
       <c r="H4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I4" t="s">
         <v>17</v>
@@ -9138,13 +9140,13 @@
         <v>17</v>
       </c>
       <c r="K4" t="s">
+        <v>409</v>
+      </c>
+      <c r="L4" t="s">
         <v>410</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>411</v>
-      </c>
-      <c r="M4" t="s">
-        <v>412</v>
       </c>
       <c r="N4" t="s">
         <v>14</v>
@@ -9185,13 +9187,13 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E5" t="s">
         <v>22</v>
@@ -9203,7 +9205,7 @@
         <v>320</v>
       </c>
       <c r="H5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I5" t="s">
         <v>17</v>
@@ -9212,13 +9214,13 @@
         <v>17</v>
       </c>
       <c r="K5" t="s">
+        <v>413</v>
+      </c>
+      <c r="L5" t="s">
         <v>414</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>415</v>
-      </c>
-      <c r="M5" t="s">
-        <v>416</v>
       </c>
       <c r="N5" t="s">
         <v>14</v>
@@ -9259,13 +9261,13 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -9277,7 +9279,7 @@
         <v>320</v>
       </c>
       <c r="H6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -9286,13 +9288,13 @@
         <v>17</v>
       </c>
       <c r="K6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L6" t="s">
+        <v>417</v>
+      </c>
+      <c r="M6" t="s">
         <v>418</v>
-      </c>
-      <c r="M6" t="s">
-        <v>419</v>
       </c>
       <c r="N6" t="s">
         <v>14</v>
@@ -9333,13 +9335,13 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
@@ -9351,7 +9353,7 @@
         <v>320</v>
       </c>
       <c r="H7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I7" t="s">
         <v>17</v>
@@ -9360,13 +9362,13 @@
         <v>17</v>
       </c>
       <c r="K7" t="s">
+        <v>420</v>
+      </c>
+      <c r="L7" t="s">
         <v>421</v>
       </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
         <v>422</v>
-      </c>
-      <c r="M7" t="s">
-        <v>423</v>
       </c>
       <c r="N7" t="s">
         <v>14</v>
@@ -9407,13 +9409,13 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E8" t="s">
         <v>30</v>
@@ -9425,7 +9427,7 @@
         <v>320</v>
       </c>
       <c r="H8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I8" t="s">
         <v>17</v>
@@ -9434,13 +9436,13 @@
         <v>17</v>
       </c>
       <c r="K8" t="s">
+        <v>424</v>
+      </c>
+      <c r="L8" t="s">
         <v>425</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
         <v>426</v>
-      </c>
-      <c r="M8" t="s">
-        <v>427</v>
       </c>
       <c r="N8" t="s">
         <v>14</v>
@@ -9481,13 +9483,13 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E9" t="s">
         <v>30</v>
@@ -9499,7 +9501,7 @@
         <v>320</v>
       </c>
       <c r="H9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -9508,13 +9510,13 @@
         <v>17</v>
       </c>
       <c r="K9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L9" t="s">
+        <v>428</v>
+      </c>
+      <c r="M9" t="s">
         <v>429</v>
-      </c>
-      <c r="M9" t="s">
-        <v>430</v>
       </c>
       <c r="N9" t="s">
         <v>14</v>
@@ -9555,13 +9557,13 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E10" t="s">
         <v>34</v>
@@ -9573,7 +9575,7 @@
         <v>320</v>
       </c>
       <c r="H10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I10" t="s">
         <v>17</v>
@@ -9582,13 +9584,13 @@
         <v>17</v>
       </c>
       <c r="K10" t="s">
+        <v>431</v>
+      </c>
+      <c r="L10" t="s">
+        <v>383</v>
+      </c>
+      <c r="M10" t="s">
         <v>432</v>
-      </c>
-      <c r="L10" t="s">
-        <v>384</v>
-      </c>
-      <c r="M10" t="s">
-        <v>433</v>
       </c>
       <c r="N10" t="s">
         <v>14</v>
@@ -9629,13 +9631,13 @@
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E11" t="s">
         <v>34</v>
@@ -9647,7 +9649,7 @@
         <v>320</v>
       </c>
       <c r="H11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
@@ -9656,13 +9658,13 @@
         <v>17</v>
       </c>
       <c r="K11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L11" t="s">
+        <v>434</v>
+      </c>
+      <c r="M11" t="s">
         <v>435</v>
-      </c>
-      <c r="M11" t="s">
-        <v>436</v>
       </c>
       <c r="N11" t="s">
         <v>14</v>
@@ -9703,13 +9705,13 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C12" t="s">
         <v>15</v>
       </c>
       <c r="D12" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E12" t="s">
         <v>38</v>
@@ -9721,7 +9723,7 @@
         <v>320</v>
       </c>
       <c r="H12" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I12" t="s">
         <v>17</v>
@@ -9730,13 +9732,13 @@
         <v>17</v>
       </c>
       <c r="K12" t="s">
+        <v>437</v>
+      </c>
+      <c r="L12" t="s">
         <v>438</v>
       </c>
-      <c r="L12" t="s">
+      <c r="M12" t="s">
         <v>439</v>
-      </c>
-      <c r="M12" t="s">
-        <v>440</v>
       </c>
       <c r="N12" t="s">
         <v>14</v>
@@ -9777,13 +9779,13 @@
         <v>58</v>
       </c>
       <c r="B13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C13" t="s">
         <v>15</v>
       </c>
       <c r="D13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E13" t="s">
         <v>38</v>
@@ -9795,7 +9797,7 @@
         <v>320</v>
       </c>
       <c r="H13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I13" t="s">
         <v>17</v>
@@ -9804,13 +9806,13 @@
         <v>17</v>
       </c>
       <c r="K13" t="s">
+        <v>441</v>
+      </c>
+      <c r="L13" t="s">
         <v>442</v>
       </c>
-      <c r="L13" t="s">
+      <c r="M13" t="s">
         <v>443</v>
-      </c>
-      <c r="M13" t="s">
-        <v>444</v>
       </c>
       <c r="N13" t="s">
         <v>14</v>
@@ -9851,13 +9853,13 @@
         <v>62</v>
       </c>
       <c r="B14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C14" t="s">
         <v>15</v>
       </c>
       <c r="D14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E14" t="s">
         <v>42</v>
@@ -9869,7 +9871,7 @@
         <v>320</v>
       </c>
       <c r="H14" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I14" t="s">
         <v>17</v>
@@ -9878,13 +9880,13 @@
         <v>17</v>
       </c>
       <c r="K14" t="s">
+        <v>445</v>
+      </c>
+      <c r="L14" t="s">
         <v>446</v>
       </c>
-      <c r="L14" t="s">
+      <c r="M14" t="s">
         <v>447</v>
-      </c>
-      <c r="M14" t="s">
-        <v>448</v>
       </c>
       <c r="N14" t="s">
         <v>14</v>
@@ -9925,13 +9927,13 @@
         <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C15" t="s">
         <v>15</v>
       </c>
       <c r="D15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E15" t="s">
         <v>46</v>
@@ -9943,7 +9945,7 @@
         <v>320</v>
       </c>
       <c r="H15" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I15" t="s">
         <v>17</v>
@@ -9952,13 +9954,13 @@
         <v>17</v>
       </c>
       <c r="K15" t="s">
+        <v>449</v>
+      </c>
+      <c r="L15" t="s">
         <v>450</v>
       </c>
-      <c r="L15" t="s">
+      <c r="M15" t="s">
         <v>451</v>
-      </c>
-      <c r="M15" t="s">
-        <v>452</v>
       </c>
       <c r="N15" t="s">
         <v>14</v>
@@ -9999,13 +10001,13 @@
         <v>71</v>
       </c>
       <c r="B16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C16" t="s">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E16" t="s">
         <v>50</v>
@@ -10017,7 +10019,7 @@
         <v>320</v>
       </c>
       <c r="H16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I16" t="s">
         <v>17</v>
@@ -10026,10 +10028,10 @@
         <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L16" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M16" t="s">
         <v>183</v>
@@ -10073,13 +10075,13 @@
         <v>75</v>
       </c>
       <c r="B17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C17" t="s">
         <v>15</v>
       </c>
       <c r="D17" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E17" t="s">
         <v>54</v>
@@ -10091,7 +10093,7 @@
         <v>320</v>
       </c>
       <c r="H17" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I17" t="s">
         <v>17</v>
@@ -10100,13 +10102,13 @@
         <v>17</v>
       </c>
       <c r="K17" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L17" t="s">
+        <v>454</v>
+      </c>
+      <c r="M17" t="s">
         <v>455</v>
-      </c>
-      <c r="M17" t="s">
-        <v>456</v>
       </c>
       <c r="N17" t="s">
         <v>14</v>
@@ -10147,13 +10149,13 @@
         <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C18" t="s">
         <v>15</v>
       </c>
       <c r="D18" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E18" t="s">
         <v>54</v>
@@ -10165,7 +10167,7 @@
         <v>320</v>
       </c>
       <c r="H18" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I18" t="s">
         <v>17</v>
@@ -10174,13 +10176,13 @@
         <v>17</v>
       </c>
       <c r="K18" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="L18" t="s">
+        <v>454</v>
+      </c>
+      <c r="M18" t="s">
         <v>455</v>
-      </c>
-      <c r="M18" t="s">
-        <v>456</v>
       </c>
       <c r="N18" t="s">
         <v>14</v>
@@ -10221,13 +10223,13 @@
         <v>83</v>
       </c>
       <c r="B19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C19" t="s">
         <v>15</v>
       </c>
       <c r="D19" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E19" t="s">
         <v>67</v>
@@ -10239,7 +10241,7 @@
         <v>320</v>
       </c>
       <c r="H19" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I19" t="s">
         <v>17</v>
@@ -10248,13 +10250,13 @@
         <v>17</v>
       </c>
       <c r="K19" t="s">
+        <v>458</v>
+      </c>
+      <c r="L19" t="s">
         <v>459</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>460</v>
-      </c>
-      <c r="M19" t="s">
-        <v>461</v>
       </c>
       <c r="N19" t="s">
         <v>14</v>
@@ -10295,13 +10297,13 @@
         <v>87</v>
       </c>
       <c r="B20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C20" t="s">
         <v>15</v>
       </c>
       <c r="D20" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E20" t="s">
         <v>71</v>
@@ -10313,7 +10315,7 @@
         <v>320</v>
       </c>
       <c r="H20" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I20" t="s">
         <v>17</v>
@@ -10322,13 +10324,13 @@
         <v>17</v>
       </c>
       <c r="K20" t="s">
+        <v>462</v>
+      </c>
+      <c r="L20" t="s">
         <v>463</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>464</v>
-      </c>
-      <c r="M20" t="s">
-        <v>465</v>
       </c>
       <c r="N20" t="s">
         <v>14</v>
@@ -10369,13 +10371,13 @@
         <v>91</v>
       </c>
       <c r="B21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C21" t="s">
         <v>15</v>
       </c>
       <c r="D21" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E21" t="s">
         <v>75</v>
@@ -10387,7 +10389,7 @@
         <v>320</v>
       </c>
       <c r="H21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I21" t="s">
         <v>17</v>
@@ -10396,13 +10398,13 @@
         <v>17</v>
       </c>
       <c r="K21" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L21" t="s">
+        <v>466</v>
+      </c>
+      <c r="M21" t="s">
         <v>467</v>
-      </c>
-      <c r="M21" t="s">
-        <v>468</v>
       </c>
       <c r="N21" t="s">
         <v>14</v>
@@ -10443,13 +10445,13 @@
         <v>95</v>
       </c>
       <c r="B22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
       </c>
       <c r="D22" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E22" t="s">
         <v>79</v>
@@ -10461,7 +10463,7 @@
         <v>320</v>
       </c>
       <c r="H22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I22" t="s">
         <v>17</v>
@@ -10470,13 +10472,13 @@
         <v>17</v>
       </c>
       <c r="K22" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L22" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N22" t="s">
         <v>14</v>
@@ -10517,13 +10519,13 @@
         <v>99</v>
       </c>
       <c r="B23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
       <c r="D23" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E23" t="s">
         <v>79</v>
@@ -10535,7 +10537,7 @@
         <v>320</v>
       </c>
       <c r="H23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I23" t="s">
         <v>17</v>
@@ -10544,13 +10546,13 @@
         <v>17</v>
       </c>
       <c r="K23" t="s">
+        <v>471</v>
+      </c>
+      <c r="L23" t="s">
         <v>472</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>473</v>
-      </c>
-      <c r="M23" t="s">
-        <v>474</v>
       </c>
       <c r="N23" t="s">
         <v>14</v>
@@ -10591,13 +10593,13 @@
         <v>103</v>
       </c>
       <c r="B24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E24" t="s">
         <v>79</v>
@@ -10609,7 +10611,7 @@
         <v>320</v>
       </c>
       <c r="H24" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I24" t="s">
         <v>17</v>
@@ -10618,13 +10620,13 @@
         <v>17</v>
       </c>
       <c r="K24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L24" t="s">
+        <v>475</v>
+      </c>
+      <c r="M24" t="s">
         <v>476</v>
-      </c>
-      <c r="M24" t="s">
-        <v>477</v>
       </c>
       <c r="N24" t="s">
         <v>14</v>
@@ -10665,13 +10667,13 @@
         <v>107</v>
       </c>
       <c r="B25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C25" t="s">
         <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E25" t="s">
         <v>79</v>
@@ -10683,7 +10685,7 @@
         <v>320</v>
       </c>
       <c r="H25" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I25" t="s">
         <v>17</v>
@@ -10692,13 +10694,13 @@
         <v>17</v>
       </c>
       <c r="K25" t="s">
+        <v>478</v>
+      </c>
+      <c r="L25" t="s">
         <v>479</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>480</v>
-      </c>
-      <c r="M25" t="s">
-        <v>481</v>
       </c>
       <c r="N25" t="s">
         <v>14</v>
@@ -10739,13 +10741,13 @@
         <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C26" t="s">
         <v>15</v>
       </c>
       <c r="D26" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E26" t="s">
         <v>83</v>
@@ -10757,7 +10759,7 @@
         <v>320</v>
       </c>
       <c r="H26" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I26" t="s">
         <v>17</v>
@@ -10766,13 +10768,13 @@
         <v>17</v>
       </c>
       <c r="K26" t="s">
+        <v>441</v>
+      </c>
+      <c r="L26" t="s">
         <v>442</v>
       </c>
-      <c r="L26" t="s">
-        <v>443</v>
-      </c>
       <c r="M26" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="N26" t="s">
         <v>14</v>
@@ -10813,13 +10815,13 @@
         <v>115</v>
       </c>
       <c r="B27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C27" t="s">
         <v>15</v>
       </c>
       <c r="D27" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E27" t="s">
         <v>83</v>
@@ -10831,7 +10833,7 @@
         <v>320</v>
       </c>
       <c r="H27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
@@ -10840,13 +10842,13 @@
         <v>17</v>
       </c>
       <c r="K27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="L27" t="s">
+        <v>484</v>
+      </c>
+      <c r="M27" t="s">
         <v>485</v>
-      </c>
-      <c r="M27" t="s">
-        <v>486</v>
       </c>
       <c r="N27" t="s">
         <v>14</v>
@@ -10887,13 +10889,13 @@
         <v>119</v>
       </c>
       <c r="B28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C28" t="s">
         <v>15</v>
       </c>
       <c r="D28" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E28" t="s">
         <v>99</v>
@@ -10905,7 +10907,7 @@
         <v>320</v>
       </c>
       <c r="H28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
@@ -10914,13 +10916,13 @@
         <v>17</v>
       </c>
       <c r="K28" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L28" t="s">
+        <v>487</v>
+      </c>
+      <c r="M28" t="s">
         <v>488</v>
-      </c>
-      <c r="M28" t="s">
-        <v>489</v>
       </c>
       <c r="N28" t="s">
         <v>14</v>
@@ -10961,13 +10963,13 @@
         <v>123</v>
       </c>
       <c r="B29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C29" t="s">
         <v>15</v>
       </c>
       <c r="D29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E29" t="s">
         <v>103</v>
@@ -10979,7 +10981,7 @@
         <v>320</v>
       </c>
       <c r="H29" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I29" t="s">
         <v>17</v>
@@ -10988,13 +10990,13 @@
         <v>17</v>
       </c>
       <c r="K29" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L29" t="s">
+        <v>490</v>
+      </c>
+      <c r="M29" t="s">
         <v>491</v>
-      </c>
-      <c r="M29" t="s">
-        <v>492</v>
       </c>
       <c r="N29" t="s">
         <v>14</v>
@@ -11035,13 +11037,13 @@
         <v>127</v>
       </c>
       <c r="B30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C30" t="s">
         <v>15</v>
       </c>
       <c r="D30" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E30" t="s">
         <v>107</v>
@@ -11053,7 +11055,7 @@
         <v>320</v>
       </c>
       <c r="H30" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I30" t="s">
         <v>17</v>
@@ -11062,13 +11064,13 @@
         <v>17</v>
       </c>
       <c r="K30" t="s">
+        <v>493</v>
+      </c>
+      <c r="L30" t="s">
         <v>494</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>495</v>
-      </c>
-      <c r="M30" t="s">
-        <v>496</v>
       </c>
       <c r="N30" t="s">
         <v>14</v>
@@ -11109,13 +11111,13 @@
         <v>131</v>
       </c>
       <c r="B31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C31" t="s">
         <v>15</v>
       </c>
       <c r="D31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E31" t="s">
         <v>115</v>
@@ -11127,7 +11129,7 @@
         <v>320</v>
       </c>
       <c r="H31" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I31" t="s">
         <v>17</v>
@@ -11136,13 +11138,13 @@
         <v>17</v>
       </c>
       <c r="K31" t="s">
+        <v>497</v>
+      </c>
+      <c r="L31" t="s">
         <v>498</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="s">
         <v>499</v>
-      </c>
-      <c r="M31" t="s">
-        <v>500</v>
       </c>
       <c r="N31" t="s">
         <v>14</v>
@@ -11183,13 +11185,13 @@
         <v>135</v>
       </c>
       <c r="B32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C32" t="s">
         <v>15</v>
       </c>
       <c r="D32" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E32" t="s">
         <v>119</v>
@@ -11201,7 +11203,7 @@
         <v>320</v>
       </c>
       <c r="H32" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I32" t="s">
         <v>17</v>
@@ -11213,10 +11215,10 @@
         <v>250</v>
       </c>
       <c r="L32" t="s">
+        <v>501</v>
+      </c>
+      <c r="M32" t="s">
         <v>502</v>
-      </c>
-      <c r="M32" t="s">
-        <v>503</v>
       </c>
       <c r="N32" t="s">
         <v>14</v>
@@ -11257,13 +11259,13 @@
         <v>140</v>
       </c>
       <c r="B33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C33" t="s">
         <v>15</v>
       </c>
       <c r="D33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E33" t="s">
         <v>119</v>
@@ -11275,7 +11277,7 @@
         <v>320</v>
       </c>
       <c r="H33" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>
@@ -11284,13 +11286,13 @@
         <v>17</v>
       </c>
       <c r="K33" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="L33" t="s">
+        <v>504</v>
+      </c>
+      <c r="M33" t="s">
         <v>505</v>
-      </c>
-      <c r="M33" t="s">
-        <v>506</v>
       </c>
       <c r="N33" t="s">
         <v>14</v>
@@ -11331,13 +11333,13 @@
         <v>144</v>
       </c>
       <c r="B34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C34" t="s">
         <v>15</v>
       </c>
       <c r="D34" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E34" t="s">
         <v>119</v>
@@ -11349,7 +11351,7 @@
         <v>320</v>
       </c>
       <c r="H34" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I34" t="s">
         <v>17</v>
@@ -11358,13 +11360,13 @@
         <v>17</v>
       </c>
       <c r="K34" t="s">
+        <v>507</v>
+      </c>
+      <c r="L34" t="s">
         <v>508</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>509</v>
-      </c>
-      <c r="M34" t="s">
-        <v>510</v>
       </c>
       <c r="N34" t="s">
         <v>14</v>
@@ -11405,13 +11407,13 @@
         <v>148</v>
       </c>
       <c r="B35" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C35" t="s">
         <v>15</v>
       </c>
       <c r="D35" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E35" t="s">
         <v>127</v>
@@ -11423,7 +11425,7 @@
         <v>320</v>
       </c>
       <c r="H35" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I35" t="s">
         <v>17</v>
@@ -11435,10 +11437,10 @@
         <v>250</v>
       </c>
       <c r="L35" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M35" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="N35" t="s">
         <v>14</v>
@@ -11479,13 +11481,13 @@
         <v>152</v>
       </c>
       <c r="B36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C36" t="s">
         <v>15</v>
       </c>
       <c r="D36" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E36" t="s">
         <v>22</v>
@@ -11497,7 +11499,7 @@
         <v>320</v>
       </c>
       <c r="H36" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I36" t="s">
         <v>17</v>
@@ -11509,31 +11511,31 @@
         <v>14</v>
       </c>
       <c r="L36" t="s">
+        <v>513</v>
+      </c>
+      <c r="M36" t="s">
+        <v>14</v>
+      </c>
+      <c r="N36" t="s">
+        <v>14</v>
+      </c>
+      <c r="O36" t="s">
+        <v>14</v>
+      </c>
+      <c r="P36" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>14</v>
+      </c>
+      <c r="R36" t="s">
+        <v>14</v>
+      </c>
+      <c r="S36" t="s">
+        <v>15</v>
+      </c>
+      <c r="T36" t="s">
         <v>514</v>
-      </c>
-      <c r="M36" t="s">
-        <v>14</v>
-      </c>
-      <c r="N36" t="s">
-        <v>14</v>
-      </c>
-      <c r="O36" t="s">
-        <v>14</v>
-      </c>
-      <c r="P36" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>14</v>
-      </c>
-      <c r="R36" t="s">
-        <v>14</v>
-      </c>
-      <c r="S36" t="s">
-        <v>15</v>
-      </c>
-      <c r="T36" t="s">
-        <v>515</v>
       </c>
       <c r="U36" t="s">
         <v>14</v>
@@ -11553,13 +11555,13 @@
         <v>157</v>
       </c>
       <c r="B37" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C37" t="s">
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E37" t="s">
         <v>140</v>
@@ -11571,7 +11573,7 @@
         <v>320</v>
       </c>
       <c r="H37" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I37" t="s">
         <v>137</v>
@@ -11583,7 +11585,7 @@
         <v>14</v>
       </c>
       <c r="L37" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="M37" t="s">
         <v>14</v>
@@ -11627,13 +11629,13 @@
         <v>161</v>
       </c>
       <c r="B38" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C38" t="s">
         <v>15</v>
       </c>
       <c r="D38" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E38" t="s">
         <v>54</v>
@@ -11645,7 +11647,7 @@
         <v>320</v>
       </c>
       <c r="H38" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I38" t="s">
         <v>17</v>
@@ -11657,7 +11659,7 @@
         <v>14</v>
       </c>
       <c r="L38" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M38" t="s">
         <v>14</v>
@@ -11681,7 +11683,7 @@
         <v>15</v>
       </c>
       <c r="T38" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="U38" t="s">
         <v>14</v>
@@ -11701,13 +11703,13 @@
         <v>166</v>
       </c>
       <c r="B39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C39" t="s">
         <v>15</v>
       </c>
       <c r="D39" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E39" t="s">
         <v>62</v>
@@ -11719,7 +11721,7 @@
         <v>320</v>
       </c>
       <c r="H39" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I39" t="s">
         <v>64</v>
@@ -11728,34 +11730,34 @@
         <v>17</v>
       </c>
       <c r="K39" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L39" t="s">
+        <v>519</v>
+      </c>
+      <c r="M39" t="s">
+        <v>14</v>
+      </c>
+      <c r="N39" t="s">
+        <v>14</v>
+      </c>
+      <c r="O39" t="s">
+        <v>14</v>
+      </c>
+      <c r="P39" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>14</v>
+      </c>
+      <c r="R39" t="s">
+        <v>14</v>
+      </c>
+      <c r="S39" t="s">
+        <v>15</v>
+      </c>
+      <c r="T39" t="s">
         <v>520</v>
-      </c>
-      <c r="M39" t="s">
-        <v>14</v>
-      </c>
-      <c r="N39" t="s">
-        <v>14</v>
-      </c>
-      <c r="O39" t="s">
-        <v>14</v>
-      </c>
-      <c r="P39" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>14</v>
-      </c>
-      <c r="R39" t="s">
-        <v>14</v>
-      </c>
-      <c r="S39" t="s">
-        <v>15</v>
-      </c>
-      <c r="T39" t="s">
-        <v>521</v>
       </c>
       <c r="U39" t="s">
         <v>14</v>
@@ -11775,13 +11777,13 @@
         <v>170</v>
       </c>
       <c r="B40" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C40" t="s">
         <v>15</v>
       </c>
       <c r="D40" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E40" t="s">
         <v>62</v>
@@ -11793,7 +11795,7 @@
         <v>320</v>
       </c>
       <c r="H40" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I40" t="s">
         <v>64</v>
@@ -11802,34 +11804,34 @@
         <v>17</v>
       </c>
       <c r="K40" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="L40" t="s">
+        <v>519</v>
+      </c>
+      <c r="M40" t="s">
+        <v>14</v>
+      </c>
+      <c r="N40" t="s">
+        <v>14</v>
+      </c>
+      <c r="O40" t="s">
+        <v>14</v>
+      </c>
+      <c r="P40" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>14</v>
+      </c>
+      <c r="R40" t="s">
+        <v>14</v>
+      </c>
+      <c r="S40" t="s">
+        <v>15</v>
+      </c>
+      <c r="T40" t="s">
         <v>520</v>
-      </c>
-      <c r="M40" t="s">
-        <v>14</v>
-      </c>
-      <c r="N40" t="s">
-        <v>14</v>
-      </c>
-      <c r="O40" t="s">
-        <v>14</v>
-      </c>
-      <c r="P40" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q40" t="s">
-        <v>14</v>
-      </c>
-      <c r="R40" t="s">
-        <v>14</v>
-      </c>
-      <c r="S40" t="s">
-        <v>15</v>
-      </c>
-      <c r="T40" t="s">
-        <v>521</v>
       </c>
       <c r="U40" t="s">
         <v>14</v>
@@ -11849,13 +11851,13 @@
         <v>174</v>
       </c>
       <c r="B41" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C41" t="s">
         <v>15</v>
       </c>
       <c r="D41" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="E41" t="s">
         <v>91</v>
@@ -11867,7 +11869,7 @@
         <v>320</v>
       </c>
       <c r="H41" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I41" t="s">
         <v>17</v>
@@ -11876,10 +11878,10 @@
         <v>64</v>
       </c>
       <c r="K41" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L41" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="M41" t="s">
         <v>14</v>
@@ -11920,16 +11922,16 @@
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>524</v>
+      </c>
+      <c r="B42" t="s">
         <v>525</v>
       </c>
-      <c r="B42" t="s">
-        <v>526</v>
-      </c>
       <c r="C42" t="s">
         <v>15</v>
       </c>
       <c r="D42" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E42" t="s">
         <v>91</v>
@@ -11941,7 +11943,7 @@
         <v>320</v>
       </c>
       <c r="H42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I42" t="s">
         <v>17</v>
@@ -11950,10 +11952,10 @@
         <v>99</v>
       </c>
       <c r="K42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L42" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="M42" t="s">
         <v>14</v>
@@ -11977,7 +11979,7 @@
         <v>15</v>
       </c>
       <c r="T42" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="U42" t="s">
         <v>14</v>
@@ -11994,16 +11996,16 @@
     </row>
     <row r="43" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>527</v>
+      </c>
+      <c r="B43" t="s">
         <v>528</v>
       </c>
-      <c r="B43" t="s">
-        <v>529</v>
-      </c>
       <c r="C43" t="s">
         <v>15</v>
       </c>
       <c r="D43" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E43" t="s">
         <v>95</v>
@@ -12015,7 +12017,7 @@
         <v>320</v>
       </c>
       <c r="H43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I43" t="s">
         <v>64</v>
@@ -12024,34 +12026,34 @@
         <v>154</v>
       </c>
       <c r="K43" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L43" t="s">
+        <v>529</v>
+      </c>
+      <c r="M43" t="s">
+        <v>14</v>
+      </c>
+      <c r="N43" t="s">
+        <v>14</v>
+      </c>
+      <c r="O43" t="s">
+        <v>14</v>
+      </c>
+      <c r="P43" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q43" t="s">
+        <v>14</v>
+      </c>
+      <c r="R43" t="s">
+        <v>14</v>
+      </c>
+      <c r="S43" t="s">
+        <v>15</v>
+      </c>
+      <c r="T43" t="s">
         <v>530</v>
-      </c>
-      <c r="M43" t="s">
-        <v>14</v>
-      </c>
-      <c r="N43" t="s">
-        <v>14</v>
-      </c>
-      <c r="O43" t="s">
-        <v>14</v>
-      </c>
-      <c r="P43" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q43" t="s">
-        <v>14</v>
-      </c>
-      <c r="R43" t="s">
-        <v>14</v>
-      </c>
-      <c r="S43" t="s">
-        <v>15</v>
-      </c>
-      <c r="T43" t="s">
-        <v>531</v>
       </c>
       <c r="U43" t="s">
         <v>14</v>
@@ -12068,16 +12070,16 @@
     </row>
     <row r="44" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>531</v>
+      </c>
+      <c r="B44" t="s">
         <v>532</v>
       </c>
-      <c r="B44" t="s">
-        <v>533</v>
-      </c>
       <c r="C44" t="s">
         <v>15</v>
       </c>
       <c r="D44" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E44" t="s">
         <v>103</v>
@@ -12089,7 +12091,7 @@
         <v>320</v>
       </c>
       <c r="H44" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I44" t="s">
         <v>17</v>
@@ -12101,7 +12103,7 @@
         <v>14</v>
       </c>
       <c r="L44" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="M44" t="s">
         <v>14</v>
@@ -12125,7 +12127,7 @@
         <v>15</v>
       </c>
       <c r="T44" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="U44" t="s">
         <v>14</v>
@@ -12142,16 +12144,16 @@
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>534</v>
+      </c>
+      <c r="B45" t="s">
         <v>535</v>
       </c>
-      <c r="B45" t="s">
-        <v>536</v>
-      </c>
       <c r="C45" t="s">
         <v>15</v>
       </c>
       <c r="D45" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E45" t="s">
         <v>107</v>
@@ -12163,7 +12165,7 @@
         <v>320</v>
       </c>
       <c r="H45" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I45" t="s">
         <v>17</v>
@@ -12172,10 +12174,10 @@
         <v>163</v>
       </c>
       <c r="K45" t="s">
+        <v>536</v>
+      </c>
+      <c r="L45" t="s">
         <v>537</v>
-      </c>
-      <c r="L45" t="s">
-        <v>538</v>
       </c>
       <c r="M45" t="s">
         <v>14</v>
@@ -12216,16 +12218,16 @@
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>538</v>
+      </c>
+      <c r="B46" t="s">
         <v>539</v>
       </c>
-      <c r="B46" t="s">
-        <v>540</v>
-      </c>
       <c r="C46" t="s">
         <v>15</v>
       </c>
       <c r="D46" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E46" t="s">
         <v>115</v>
@@ -12237,7 +12239,7 @@
         <v>320</v>
       </c>
       <c r="H46" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I46" t="s">
         <v>17</v>
@@ -12246,10 +12248,10 @@
         <v>163</v>
       </c>
       <c r="K46" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="L46" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="M46" t="s">
         <v>14</v>
@@ -12273,7 +12275,7 @@
         <v>15</v>
       </c>
       <c r="T46" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="U46" t="s">
         <v>14</v>
@@ -12290,16 +12292,16 @@
     </row>
     <row r="47" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>541</v>
+      </c>
+      <c r="B47" t="s">
         <v>542</v>
       </c>
-      <c r="B47" t="s">
-        <v>543</v>
-      </c>
       <c r="C47" t="s">
         <v>15</v>
       </c>
       <c r="D47" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E47" t="s">
         <v>131</v>
@@ -12311,7 +12313,7 @@
         <v>320</v>
       </c>
       <c r="H47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I47" t="s">
         <v>17</v>
@@ -12320,10 +12322,10 @@
         <v>137</v>
       </c>
       <c r="K47" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="L47" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="M47" t="s">
         <v>14</v>
@@ -12347,7 +12349,7 @@
         <v>15</v>
       </c>
       <c r="T47" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="U47" t="s">
         <v>14</v>
@@ -12403,7 +12405,7 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -12417,7 +12419,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -12455,10 +12457,10 @@
         <v>178</v>
       </c>
       <c r="F1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G1" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="H1" t="s">
         <v>233</v>
@@ -12467,61 +12469,61 @@
         <v>4</v>
       </c>
       <c r="J1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="K1" t="s">
+        <v>547</v>
+      </c>
+      <c r="L1" t="s">
         <v>548</v>
-      </c>
-      <c r="L1" t="s">
-        <v>549</v>
       </c>
       <c r="M1" t="s">
         <v>239</v>
       </c>
       <c r="N1" t="s">
+        <v>549</v>
+      </c>
+      <c r="O1" t="s">
         <v>550</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>551</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>552</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>553</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>554</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>555</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>556</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>557</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>558</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>559</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>560</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>561</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>562</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>563</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="2" spans="1:28" x14ac:dyDescent="0.2">
@@ -12529,13 +12531,13 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E2" t="s">
         <v>135</v>
@@ -12544,7 +12546,7 @@
         <v>241</v>
       </c>
       <c r="G2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H2" t="s">
         <v>242</v>
@@ -12553,61 +12555,61 @@
         <v>137</v>
       </c>
       <c r="J2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
       </c>
       <c r="L2" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="M2" t="s">
         <v>250</v>
       </c>
       <c r="N2" t="s">
+        <v>567</v>
+      </c>
+      <c r="O2" t="s">
         <v>568</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R2" t="s">
+        <v>14</v>
+      </c>
+      <c r="S2" t="s">
+        <v>14</v>
+      </c>
+      <c r="T2" t="s">
+        <v>15</v>
+      </c>
+      <c r="U2" t="s">
         <v>569</v>
-      </c>
-      <c r="P2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" t="s">
-        <v>14</v>
-      </c>
-      <c r="S2" t="s">
-        <v>14</v>
-      </c>
-      <c r="T2" t="s">
-        <v>15</v>
-      </c>
-      <c r="U2" t="s">
-        <v>570</v>
       </c>
       <c r="V2" t="s">
         <v>251</v>
       </c>
       <c r="W2" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="X2" t="s">
         <v>251</v>
       </c>
       <c r="Y2" t="s">
+        <v>570</v>
+      </c>
+      <c r="Z2" t="s">
         <v>571</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>572</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>573</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.2">
@@ -12615,13 +12617,13 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E3" t="s">
         <v>140</v>
@@ -12630,7 +12632,7 @@
         <v>252</v>
       </c>
       <c r="G3" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H3" t="s">
         <v>253</v>
@@ -12639,61 +12641,61 @@
         <v>137</v>
       </c>
       <c r="J3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K3" t="s">
         <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M3" t="s">
         <v>258</v>
       </c>
       <c r="N3" t="s">
+        <v>576</v>
+      </c>
+      <c r="O3" t="s">
         <v>577</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" t="s">
+        <v>14</v>
+      </c>
+      <c r="S3" t="s">
+        <v>14</v>
+      </c>
+      <c r="T3" t="s">
         <v>578</v>
       </c>
-      <c r="P3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>14</v>
-      </c>
-      <c r="R3" t="s">
-        <v>14</v>
-      </c>
-      <c r="S3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>579</v>
-      </c>
-      <c r="U3" t="s">
-        <v>580</v>
       </c>
       <c r="V3" t="s">
         <v>259</v>
       </c>
       <c r="W3" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="X3" t="s">
         <v>259</v>
       </c>
       <c r="Y3" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="Z3" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA3" t="s">
         <v>572</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>573</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.2">
@@ -12701,13 +12703,13 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C4" t="s">
         <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E4" t="s">
         <v>144</v>
@@ -12716,7 +12718,7 @@
         <v>260</v>
       </c>
       <c r="G4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H4" t="s">
         <v>261</v>
@@ -12725,61 +12727,61 @@
         <v>99</v>
       </c>
       <c r="J4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K4" t="s">
         <v>14</v>
       </c>
       <c r="L4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M4" t="s">
         <v>266</v>
       </c>
       <c r="N4" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="O4" t="s">
+        <v>583</v>
+      </c>
+      <c r="P4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>14</v>
+      </c>
+      <c r="R4" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" t="s">
+        <v>14</v>
+      </c>
+      <c r="T4" t="s">
         <v>584</v>
       </c>
-      <c r="P4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" t="s">
-        <v>14</v>
-      </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>585</v>
-      </c>
-      <c r="U4" t="s">
-        <v>586</v>
       </c>
       <c r="V4" t="s">
         <v>267</v>
       </c>
       <c r="W4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="X4" t="s">
         <v>267</v>
       </c>
       <c r="Y4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="Z4" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA4" t="s">
         <v>572</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>573</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.2">
@@ -12787,13 +12789,13 @@
         <v>26</v>
       </c>
       <c r="B5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E5" t="s">
         <v>148</v>
@@ -12802,7 +12804,7 @@
         <v>268</v>
       </c>
       <c r="G5" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H5" t="s">
         <v>269</v>
@@ -12811,61 +12813,61 @@
         <v>99</v>
       </c>
       <c r="J5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K5" t="s">
         <v>14</v>
       </c>
       <c r="L5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="M5" t="s">
         <v>275</v>
       </c>
       <c r="N5" t="s">
+        <v>589</v>
+      </c>
+      <c r="O5" t="s">
         <v>590</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" t="s">
+        <v>14</v>
+      </c>
+      <c r="S5" t="s">
+        <v>14</v>
+      </c>
+      <c r="T5" t="s">
         <v>591</v>
       </c>
-      <c r="P5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>14</v>
-      </c>
-      <c r="R5" t="s">
-        <v>14</v>
-      </c>
-      <c r="S5" t="s">
-        <v>14</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>592</v>
-      </c>
-      <c r="U5" t="s">
-        <v>593</v>
       </c>
       <c r="V5" t="s">
         <v>276</v>
       </c>
       <c r="W5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="X5" t="s">
         <v>276</v>
       </c>
       <c r="Y5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="Z5" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA5" t="s">
         <v>572</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>573</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.2">
@@ -12873,13 +12875,13 @@
         <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C6" t="s">
         <v>15</v>
       </c>
       <c r="D6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E6" t="s">
         <v>152</v>
@@ -12888,7 +12890,7 @@
         <v>277</v>
       </c>
       <c r="G6" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H6" t="s">
         <v>278</v>
@@ -12897,7 +12899,7 @@
         <v>154</v>
       </c>
       <c r="J6" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K6" t="s">
         <v>14</v>
@@ -12909,49 +12911,49 @@
         <v>250</v>
       </c>
       <c r="N6" t="s">
+        <v>595</v>
+      </c>
+      <c r="O6" t="s">
         <v>596</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>14</v>
+      </c>
+      <c r="R6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6" t="s">
+        <v>14</v>
+      </c>
+      <c r="T6" t="s">
         <v>597</v>
       </c>
-      <c r="P6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" t="s">
-        <v>14</v>
-      </c>
-      <c r="S6" t="s">
-        <v>14</v>
-      </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>598</v>
-      </c>
-      <c r="U6" t="s">
-        <v>599</v>
       </c>
       <c r="V6" t="s">
         <v>284</v>
       </c>
       <c r="W6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="X6" t="s">
         <v>284</v>
       </c>
       <c r="Y6" t="s">
+        <v>599</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA6" t="s">
         <v>600</v>
       </c>
-      <c r="Z6" t="s">
-        <v>572</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>601</v>
-      </c>
       <c r="AB6" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.2">
@@ -12959,13 +12961,13 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C7" t="s">
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E7" t="s">
         <v>157</v>
@@ -12974,7 +12976,7 @@
         <v>285</v>
       </c>
       <c r="G7" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H7" t="s">
         <v>286</v>
@@ -12983,61 +12985,61 @@
         <v>154</v>
       </c>
       <c r="J7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K7" t="s">
         <v>14</v>
       </c>
       <c r="L7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M7" t="s">
         <v>292</v>
       </c>
       <c r="N7" t="s">
+        <v>603</v>
+      </c>
+      <c r="O7" t="s">
+        <v>375</v>
+      </c>
+      <c r="P7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>14</v>
+      </c>
+      <c r="R7" t="s">
+        <v>14</v>
+      </c>
+      <c r="S7" t="s">
+        <v>14</v>
+      </c>
+      <c r="T7" t="s">
         <v>604</v>
       </c>
-      <c r="O7" t="s">
-        <v>376</v>
-      </c>
-      <c r="P7" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>14</v>
-      </c>
-      <c r="R7" t="s">
-        <v>14</v>
-      </c>
-      <c r="S7" t="s">
-        <v>14</v>
-      </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>605</v>
-      </c>
-      <c r="U7" t="s">
-        <v>606</v>
       </c>
       <c r="V7" t="s">
         <v>293</v>
       </c>
       <c r="W7" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="X7" t="s">
         <v>293</v>
       </c>
       <c r="Y7" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="Z7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AA7" t="s">
         <v>231</v>
       </c>
       <c r="AB7" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.2">
@@ -13045,13 +13047,13 @@
         <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E8" t="s">
         <v>161</v>
@@ -13060,7 +13062,7 @@
         <v>294</v>
       </c>
       <c r="G8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H8" t="s">
         <v>295</v>
@@ -13069,61 +13071,61 @@
         <v>163</v>
       </c>
       <c r="J8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K8" t="s">
         <v>14</v>
       </c>
       <c r="L8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="M8" t="s">
         <v>300</v>
       </c>
       <c r="N8" t="s">
+        <v>609</v>
+      </c>
+      <c r="O8" t="s">
         <v>610</v>
       </c>
-      <c r="O8" t="s">
+      <c r="P8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>14</v>
+      </c>
+      <c r="R8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S8" t="s">
+        <v>14</v>
+      </c>
+      <c r="T8" t="s">
+        <v>578</v>
+      </c>
+      <c r="U8" t="s">
         <v>611</v>
-      </c>
-      <c r="P8" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>14</v>
-      </c>
-      <c r="R8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S8" t="s">
-        <v>14</v>
-      </c>
-      <c r="T8" t="s">
-        <v>579</v>
-      </c>
-      <c r="U8" t="s">
-        <v>612</v>
       </c>
       <c r="V8" t="s">
         <v>301</v>
       </c>
       <c r="W8" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="X8" t="s">
         <v>301</v>
       </c>
       <c r="Y8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="Z8" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA8" t="s">
         <v>572</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>573</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.2">
@@ -13131,13 +13133,13 @@
         <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E9" t="s">
         <v>166</v>
@@ -13146,7 +13148,7 @@
         <v>302</v>
       </c>
       <c r="G9" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H9" t="s">
         <v>303</v>
@@ -13155,61 +13157,61 @@
         <v>163</v>
       </c>
       <c r="J9" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K9" t="s">
         <v>14</v>
       </c>
       <c r="L9" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="M9" t="s">
         <v>308</v>
       </c>
       <c r="N9" t="s">
+        <v>615</v>
+      </c>
+      <c r="O9" t="s">
         <v>616</v>
       </c>
-      <c r="O9" t="s">
+      <c r="P9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>14</v>
+      </c>
+      <c r="R9" t="s">
+        <v>14</v>
+      </c>
+      <c r="S9" t="s">
+        <v>14</v>
+      </c>
+      <c r="T9" t="s">
         <v>617</v>
       </c>
-      <c r="P9" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>14</v>
-      </c>
-      <c r="R9" t="s">
-        <v>14</v>
-      </c>
-      <c r="S9" t="s">
-        <v>14</v>
-      </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>618</v>
-      </c>
-      <c r="U9" t="s">
-        <v>619</v>
       </c>
       <c r="V9" t="s">
         <v>309</v>
       </c>
       <c r="W9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="X9" t="s">
         <v>309</v>
       </c>
       <c r="Y9" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="Z9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AA9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="AB9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.2">
@@ -13217,13 +13219,13 @@
         <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
       <c r="D10" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E10" t="s">
         <v>170</v>
@@ -13232,7 +13234,7 @@
         <v>310</v>
       </c>
       <c r="G10" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="H10" t="s">
         <v>311</v>
@@ -13241,7 +13243,7 @@
         <v>137</v>
       </c>
       <c r="J10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K10" t="s">
         <v>14</v>
@@ -13253,49 +13255,49 @@
         <v>317</v>
       </c>
       <c r="N10" t="s">
+        <v>621</v>
+      </c>
+      <c r="O10" t="s">
+        <v>616</v>
+      </c>
+      <c r="P10" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>14</v>
+      </c>
+      <c r="R10" t="s">
+        <v>14</v>
+      </c>
+      <c r="S10" t="s">
+        <v>14</v>
+      </c>
+      <c r="T10" t="s">
         <v>622</v>
       </c>
-      <c r="O10" t="s">
-        <v>617</v>
-      </c>
-      <c r="P10" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>14</v>
-      </c>
-      <c r="R10" t="s">
-        <v>14</v>
-      </c>
-      <c r="S10" t="s">
-        <v>14</v>
-      </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>623</v>
-      </c>
-      <c r="U10" t="s">
-        <v>624</v>
       </c>
       <c r="V10" t="s">
         <v>318</v>
       </c>
       <c r="W10" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="X10" t="s">
         <v>318</v>
       </c>
       <c r="Y10" t="s">
+        <v>624</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>571</v>
+      </c>
+      <c r="AA10" t="s">
         <v>625</v>
       </c>
-      <c r="Z10" t="s">
-        <v>572</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>626</v>
-      </c>
       <c r="AB10" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.2">
@@ -13303,31 +13305,31 @@
         <v>50</v>
       </c>
       <c r="B11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C11" t="s">
         <v>15</v>
       </c>
       <c r="D11" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E11" t="s">
         <v>174</v>
       </c>
       <c r="F11" t="s">
+        <v>376</v>
+      </c>
+      <c r="G11" t="s">
+        <v>565</v>
+      </c>
+      <c r="H11" t="s">
         <v>377</v>
-      </c>
-      <c r="G11" t="s">
-        <v>566</v>
-      </c>
-      <c r="H11" t="s">
-        <v>378</v>
       </c>
       <c r="I11" t="s">
         <v>17</v>
       </c>
       <c r="J11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K11" t="s">
         <v>14</v>
@@ -13336,52 +13338,52 @@
         <v>320</v>
       </c>
       <c r="M11" t="s">
+        <v>382</v>
+      </c>
+      <c r="N11" t="s">
+        <v>571</v>
+      </c>
+      <c r="O11" t="s">
+        <v>627</v>
+      </c>
+      <c r="P11" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>14</v>
+      </c>
+      <c r="R11" t="s">
+        <v>14</v>
+      </c>
+      <c r="S11" t="s">
+        <v>14</v>
+      </c>
+      <c r="T11" t="s">
+        <v>628</v>
+      </c>
+      <c r="U11" t="s">
+        <v>629</v>
+      </c>
+      <c r="V11" t="s">
         <v>383</v>
       </c>
-      <c r="N11" t="s">
-        <v>572</v>
-      </c>
-      <c r="O11" t="s">
-        <v>628</v>
-      </c>
-      <c r="P11" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>14</v>
-      </c>
-      <c r="R11" t="s">
-        <v>14</v>
-      </c>
-      <c r="S11" t="s">
-        <v>14</v>
-      </c>
-      <c r="T11" t="s">
-        <v>629</v>
-      </c>
-      <c r="U11" t="s">
-        <v>630</v>
-      </c>
-      <c r="V11" t="s">
-        <v>384</v>
-      </c>
       <c r="W11" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="X11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Y11" t="s">
         <v>42</v>
       </c>
       <c r="Z11" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="AA11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AB11" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
   </sheetData>

--- a/jwang/case/ieee39_ev2.xlsx
+++ b/jwang/case/ieee39_ev2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/andes/jwang/case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17955C38-CAF3-F74F-9B27-F1507181E9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1909F98C-BD55-D645-BAF5-EA8041211EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="500" windowWidth="19200" windowHeight="21100" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17280" yWindow="500" windowWidth="21120" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3347" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3325" uniqueCount="756">
   <si>
     <t>uid</t>
   </si>
@@ -2338,8 +2338,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -7680,13 +7681,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="138" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="E1" zoomScale="138" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="9" max="10" width="10.83203125" style="1"/>
+    <col min="9" max="10" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.2">
@@ -7714,10 +7715,10 @@
       <c r="H1" t="s">
         <v>234</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>180</v>
       </c>
       <c r="K1" t="s">
@@ -7770,17 +7771,17 @@
       <c r="G2" t="s">
         <v>135</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1">
+        <v>4.3608638500000003</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.4</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>743</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="3" t="s">
         <v>744</v>
-      </c>
-      <c r="K2" t="s">
-        <v>75</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
       </c>
       <c r="M2" t="s">
         <v>244</v>
@@ -7826,17 +7827,17 @@
       <c r="G3" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1">
+        <v>6.4599999800000001</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="L3" s="3" t="s">
         <v>587</v>
-      </c>
-      <c r="K3" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" t="s">
-        <v>252</v>
       </c>
       <c r="M3" t="s">
         <v>253</v>
@@ -7882,17 +7883,17 @@
       <c r="G4" t="s">
         <v>144</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="I4" s="1">
+        <v>7.2499999800000001</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>746</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="L4" s="3" t="s">
         <v>609</v>
-      </c>
-      <c r="K4" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" t="s">
-        <v>15</v>
       </c>
       <c r="M4" t="s">
         <v>260</v>
@@ -7938,17 +7939,17 @@
       <c r="G5" t="s">
         <v>148</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="1">
+        <v>6.5199999799999997</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.5806</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>747</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="L5" s="3" t="s">
         <v>748</v>
-      </c>
-      <c r="K5" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" t="s">
-        <v>15</v>
       </c>
       <c r="M5" t="s">
         <v>267</v>
@@ -7994,17 +7995,17 @@
       <c r="G6" t="s">
         <v>152</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="1">
+        <v>5.0799999800000002</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.5853999999999999</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>749</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="L6" s="3" t="s">
         <v>750</v>
-      </c>
-      <c r="K6" t="s">
-        <v>42</v>
-      </c>
-      <c r="L6" t="s">
-        <v>15</v>
       </c>
       <c r="M6" t="s">
         <v>275</v>
@@ -8050,17 +8051,17 @@
       <c r="G7" t="s">
         <v>157</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="1">
+        <v>6.8699999800000002</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2.5777000000000001</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>751</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="L7" s="3" t="s">
         <v>207</v>
-      </c>
-      <c r="K7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L7" t="s">
-        <v>15</v>
       </c>
       <c r="M7" t="s">
         <v>282</v>
@@ -8106,17 +8107,17 @@
       <c r="G8" t="s">
         <v>161</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="1">
+        <v>5.7999999799999999</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0.78759999999999997</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>752</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="L8" s="3" t="s">
         <v>753</v>
-      </c>
-      <c r="K8" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" t="s">
-        <v>15</v>
       </c>
       <c r="M8" t="s">
         <v>289</v>
@@ -8162,17 +8163,17 @@
       <c r="G9" t="s">
         <v>166</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
+        <v>3.2152133800000002</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
         <v>5.64</v>
       </c>
-      <c r="J9" s="2">
+      <c r="L9" s="3">
         <v>2.2559999999999998</v>
-      </c>
-      <c r="K9" t="s">
-        <v>42</v>
-      </c>
-      <c r="L9" t="s">
-        <v>15</v>
       </c>
       <c r="M9" t="s">
         <v>295</v>
@@ -8218,17 +8219,17 @@
       <c r="G10" t="s">
         <v>170</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="1">
+        <v>7.6478338099999998</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1.4279999999999999</v>
+      </c>
+      <c r="K10" s="3" t="s">
         <v>754</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="L10" s="3" t="s">
         <v>755</v>
-      </c>
-      <c r="K10" t="s">
-        <v>54</v>
-      </c>
-      <c r="L10" t="s">
-        <v>15</v>
       </c>
       <c r="M10" t="s">
         <v>302</v>
@@ -8274,10 +8275,10 @@
       <c r="G11" t="s">
         <v>170</v>
       </c>
-      <c r="I11" s="1" t="s">
+      <c r="I11" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="2" t="s">
         <v>14</v>
       </c>
       <c r="K11" t="s">
@@ -8311,7 +8312,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:S1 A11:S11 A2:H10 K2:S10" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:S1 A11:S11 A2:H10 M2:S10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8320,8 +8321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AS2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView topLeftCell="S1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="Z2" sqref="Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8530,11 +8531,11 @@
       <c r="V2" t="s">
         <v>15</v>
       </c>
-      <c r="X2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>14</v>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
       </c>
       <c r="Z2" t="s">
         <v>184</v>
@@ -8548,8 +8549,8 @@
       <c r="AC2" t="s">
         <v>356</v>
       </c>
-      <c r="AD2" t="s">
-        <v>30</v>
+      <c r="AD2">
+        <v>20</v>
       </c>
       <c r="AE2" t="s">
         <v>357</v>
@@ -8593,14 +8594,14 @@
       <c r="AR2" t="s">
         <v>19</v>
       </c>
-      <c r="AS2" t="s">
-        <v>364</v>
+      <c r="AS2">
+        <v>0.7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AS2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:AS1 A2:W2 Z2:AC2 AE2:AR2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8609,8 +8610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/jwang/case/ieee39_ev2.xlsx
+++ b/jwang/case/ieee39_ev2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/andes/jwang/case/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang175\.ssh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1909F98C-BD55-D645-BAF5-EA8041211EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3427E1A-7873-404D-9692-020D6111FDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17280" yWindow="500" windowWidth="21120" windowHeight="21100" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -30,12 +30,24 @@
     <sheet name="Toggler" sheetId="15" r:id="rId15"/>
     <sheet name="COI" sheetId="16" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3325" uniqueCount="756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3279" uniqueCount="756">
   <si>
     <t>uid</t>
   </si>
@@ -2690,9 +2702,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2736,7 +2748,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2780,7 +2792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2824,7 +2836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2868,7 +2880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2912,7 +2924,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -2956,7 +2968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -3000,7 +3012,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -3044,7 +3056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -3088,7 +3100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -3132,7 +3144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -3176,7 +3188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -3220,7 +3232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -3264,7 +3276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -3308,7 +3320,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -3352,7 +3364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -3396,7 +3408,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -3440,7 +3452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -3484,7 +3496,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -3528,7 +3540,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -3572,7 +3584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -3616,7 +3628,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -3660,7 +3672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -3704,7 +3716,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -3748,7 +3760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -3792,7 +3804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -3836,7 +3848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -3880,7 +3892,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>119</v>
       </c>
@@ -3924,7 +3936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -3968,7 +3980,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -4012,7 +4024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>131</v>
       </c>
@@ -4056,7 +4068,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>135</v>
       </c>
@@ -4100,7 +4112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -4144,7 +4156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -4188,7 +4200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -4232,7 +4244,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -4276,7 +4288,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>157</v>
       </c>
@@ -4320,7 +4332,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -4364,7 +4376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>166</v>
       </c>
@@ -4408,7 +4420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>170</v>
       </c>
@@ -4466,9 +4478,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4512,7 +4524,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4556,7 +4568,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4600,7 +4612,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -4644,7 +4656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -4688,7 +4700,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -4732,7 +4744,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -4776,7 +4788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -4820,7 +4832,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -4864,7 +4876,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -4908,7 +4920,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4966,9 +4978,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5030,7 +5042,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -5092,7 +5104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -5154,7 +5166,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5216,7 +5228,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -5278,7 +5290,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -5340,7 +5352,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -5402,7 +5414,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -5464,7 +5476,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -5526,7 +5538,7 @@
         <v>692</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -5588,7 +5600,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -5664,9 +5676,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5743,7 +5755,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -5817,7 +5829,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -5891,7 +5903,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5965,7 +5977,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -6039,7 +6051,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -6113,7 +6125,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -6187,7 +6199,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -6261,7 +6273,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -6335,7 +6347,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -6409,7 +6421,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -6497,9 +6509,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6525,7 +6537,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -6551,7 +6563,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -6577,7 +6589,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -6603,7 +6615,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -6629,7 +6641,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -6655,7 +6667,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -6681,7 +6693,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -6707,7 +6719,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -6733,7 +6745,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -6759,7 +6771,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -6799,9 +6811,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6824,7 +6836,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -6861,9 +6873,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6886,7 +6898,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -6923,9 +6935,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6939,7 +6951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -6967,9 +6979,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7004,7 +7016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -7039,7 +7051,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -7074,7 +7086,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -7109,7 +7121,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -7144,7 +7156,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -7179,7 +7191,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -7214,7 +7226,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -7249,7 +7261,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -7284,7 +7296,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -7319,7 +7331,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -7354,7 +7366,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -7389,7 +7401,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -7424,7 +7436,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -7459,7 +7471,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -7494,7 +7506,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -7529,7 +7541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -7564,7 +7576,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -7599,7 +7611,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -7634,7 +7646,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -7685,12 +7697,12 @@
       <selection activeCell="I2" sqref="I2:J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="9" max="10" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7749,7 +7761,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -7805,7 +7817,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -7861,7 +7873,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -7917,7 +7929,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -7973,7 +7985,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -8029,7 +8041,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -8085,7 +8097,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -8141,7 +8153,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -8197,7 +8209,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -8253,7 +8265,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -8321,13 +8333,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AS2"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="135" workbookViewId="0">
-      <selection activeCell="Z2" sqref="Z2"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="X3" sqref="X3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8464,7 +8476,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -8532,10 +8544,10 @@
         <v>15</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>-10</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z2" t="s">
         <v>184</v>
@@ -8550,7 +8562,7 @@
         <v>356</v>
       </c>
       <c r="AD2">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="AE2" t="s">
         <v>357</v>
@@ -8610,13 +8622,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="125" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8678,7 +8690,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -8751,9 +8763,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8785,7 +8797,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -8817,7 +8829,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -8861,11 +8873,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB1" sqref="AB1:AB1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8948,7 +8962,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -9012,8 +9026,8 @@
       <c r="U2" t="s">
         <v>14</v>
       </c>
-      <c r="Y2" t="s">
-        <v>397</v>
+      <c r="Y2">
+        <v>900</v>
       </c>
       <c r="Z2" t="s">
         <v>397</v>
@@ -9022,7 +9036,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -9086,8 +9100,8 @@
       <c r="U3" t="s">
         <v>14</v>
       </c>
-      <c r="Y3" t="s">
-        <v>401</v>
+      <c r="Y3">
+        <v>1500</v>
       </c>
       <c r="Z3" t="s">
         <v>401</v>
@@ -9096,7 +9110,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -9160,8 +9174,8 @@
       <c r="U4" t="s">
         <v>14</v>
       </c>
-      <c r="Y4" t="s">
-        <v>350</v>
+      <c r="Y4">
+        <v>750</v>
       </c>
       <c r="Z4" t="s">
         <v>350</v>
@@ -9170,7 +9184,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -9234,8 +9248,8 @@
       <c r="U5" t="s">
         <v>14</v>
       </c>
-      <c r="Y5" t="s">
-        <v>350</v>
+      <c r="Y5">
+        <v>750</v>
       </c>
       <c r="Z5" t="s">
         <v>350</v>
@@ -9244,7 +9258,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -9308,8 +9322,8 @@
       <c r="U6" t="s">
         <v>14</v>
       </c>
-      <c r="Y6" t="s">
-        <v>413</v>
+      <c r="Y6">
+        <v>1350</v>
       </c>
       <c r="Z6" t="s">
         <v>413</v>
@@ -9318,7 +9332,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -9382,8 +9396,8 @@
       <c r="U7" t="s">
         <v>14</v>
       </c>
-      <c r="Y7" t="s">
-        <v>350</v>
+      <c r="Y7">
+        <v>750</v>
       </c>
       <c r="Z7" t="s">
         <v>350</v>
@@ -9392,7 +9406,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -9456,8 +9470,8 @@
       <c r="U8" t="s">
         <v>14</v>
       </c>
-      <c r="Y8" t="s">
-        <v>350</v>
+      <c r="Y8">
+        <v>750</v>
       </c>
       <c r="Z8" t="s">
         <v>350</v>
@@ -9466,7 +9480,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -9530,8 +9544,8 @@
       <c r="U9" t="s">
         <v>14</v>
       </c>
-      <c r="Y9" t="s">
-        <v>397</v>
+      <c r="Y9">
+        <v>900</v>
       </c>
       <c r="Z9" t="s">
         <v>397</v>
@@ -9540,7 +9554,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -9604,8 +9618,8 @@
       <c r="U10" t="s">
         <v>14</v>
       </c>
-      <c r="Y10" t="s">
-        <v>350</v>
+      <c r="Y10">
+        <v>750</v>
       </c>
       <c r="Z10" t="s">
         <v>350</v>
@@ -9614,7 +9628,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -9678,8 +9692,8 @@
       <c r="U11" t="s">
         <v>14</v>
       </c>
-      <c r="Y11" t="s">
-        <v>432</v>
+      <c r="Y11">
+        <v>1800</v>
       </c>
       <c r="Z11" t="s">
         <v>432</v>
@@ -9688,7 +9702,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -9752,8 +9766,8 @@
       <c r="U12" t="s">
         <v>14</v>
       </c>
-      <c r="Y12" t="s">
-        <v>413</v>
+      <c r="Y12">
+        <v>1350</v>
       </c>
       <c r="Z12" t="s">
         <v>413</v>
@@ -9762,7 +9776,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -9826,8 +9840,8 @@
       <c r="U13" t="s">
         <v>14</v>
       </c>
-      <c r="Y13" t="s">
-        <v>413</v>
+      <c r="Y13">
+        <v>1350</v>
       </c>
       <c r="Z13" t="s">
         <v>413</v>
@@ -9836,7 +9850,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -9900,8 +9914,8 @@
       <c r="U14" t="s">
         <v>14</v>
       </c>
-      <c r="Y14" t="s">
-        <v>445</v>
+      <c r="Y14">
+        <v>720</v>
       </c>
       <c r="Z14" t="s">
         <v>445</v>
@@ -9910,7 +9924,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -9974,8 +9988,8 @@
       <c r="U15" t="s">
         <v>14</v>
       </c>
-      <c r="Y15" t="s">
-        <v>450</v>
+      <c r="Y15">
+        <v>2700</v>
       </c>
       <c r="Z15" t="s">
         <v>450</v>
@@ -9984,7 +9998,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -10048,8 +10062,8 @@
       <c r="U16" t="s">
         <v>14</v>
       </c>
-      <c r="Y16" t="s">
-        <v>413</v>
+      <c r="Y16">
+        <v>1350</v>
       </c>
       <c r="Z16" t="s">
         <v>413</v>
@@ -10058,7 +10072,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -10122,8 +10136,8 @@
       <c r="U17" t="s">
         <v>14</v>
       </c>
-      <c r="Y17" t="s">
-        <v>413</v>
+      <c r="Y17">
+        <v>1350</v>
       </c>
       <c r="Z17" t="s">
         <v>413</v>
@@ -10132,7 +10146,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -10196,8 +10210,8 @@
       <c r="U18" t="s">
         <v>14</v>
       </c>
-      <c r="Y18" t="s">
-        <v>413</v>
+      <c r="Y18">
+        <v>1350</v>
       </c>
       <c r="Z18" t="s">
         <v>413</v>
@@ -10206,7 +10220,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -10270,8 +10284,8 @@
       <c r="U19" t="s">
         <v>14</v>
       </c>
-      <c r="Y19" t="s">
-        <v>397</v>
+      <c r="Y19">
+        <v>900</v>
       </c>
       <c r="Z19" t="s">
         <v>397</v>
@@ -10280,7 +10294,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -10344,8 +10358,8 @@
       <c r="U20" t="s">
         <v>14</v>
       </c>
-      <c r="Y20" t="s">
-        <v>397</v>
+      <c r="Y20">
+        <v>900</v>
       </c>
       <c r="Z20" t="s">
         <v>397</v>
@@ -10354,7 +10368,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -10418,8 +10432,8 @@
       <c r="U21" t="s">
         <v>14</v>
       </c>
-      <c r="Y21" t="s">
-        <v>413</v>
+      <c r="Y21">
+        <v>1350</v>
       </c>
       <c r="Z21" t="s">
         <v>413</v>
@@ -10428,7 +10442,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -10492,8 +10506,8 @@
       <c r="U22" t="s">
         <v>14</v>
       </c>
-      <c r="Y22" t="s">
-        <v>350</v>
+      <c r="Y22">
+        <v>750</v>
       </c>
       <c r="Z22" t="s">
         <v>350</v>
@@ -10502,7 +10516,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -10566,8 +10580,8 @@
       <c r="U23" t="s">
         <v>14</v>
       </c>
-      <c r="Y23" t="s">
-        <v>350</v>
+      <c r="Y23">
+        <v>750</v>
       </c>
       <c r="Z23" t="s">
         <v>350</v>
@@ -10576,7 +10590,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -10640,8 +10654,8 @@
       <c r="U24" t="s">
         <v>14</v>
       </c>
-      <c r="Y24" t="s">
-        <v>397</v>
+      <c r="Y24">
+        <v>900</v>
       </c>
       <c r="Z24" t="s">
         <v>397</v>
@@ -10650,7 +10664,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -10714,8 +10728,8 @@
       <c r="U25" t="s">
         <v>14</v>
       </c>
-      <c r="Y25" t="s">
-        <v>397</v>
+      <c r="Y25">
+        <v>900</v>
       </c>
       <c r="Z25" t="s">
         <v>397</v>
@@ -10724,7 +10738,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -10788,8 +10802,8 @@
       <c r="U26" t="s">
         <v>14</v>
       </c>
-      <c r="Y26" t="s">
-        <v>397</v>
+      <c r="Y26">
+        <v>900</v>
       </c>
       <c r="Z26" t="s">
         <v>397</v>
@@ -10798,7 +10812,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -10862,8 +10876,8 @@
       <c r="U27" t="s">
         <v>14</v>
       </c>
-      <c r="Y27" t="s">
-        <v>397</v>
+      <c r="Y27">
+        <v>900</v>
       </c>
       <c r="Z27" t="s">
         <v>397</v>
@@ -10872,7 +10886,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>119</v>
       </c>
@@ -10936,8 +10950,8 @@
       <c r="U28" t="s">
         <v>14</v>
       </c>
-      <c r="Y28" t="s">
-        <v>397</v>
+      <c r="Y28">
+        <v>900</v>
       </c>
       <c r="Z28" t="s">
         <v>397</v>
@@ -10946,7 +10960,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -11010,8 +11024,8 @@
       <c r="U29" t="s">
         <v>14</v>
       </c>
-      <c r="Y29" t="s">
-        <v>397</v>
+      <c r="Y29">
+        <v>900</v>
       </c>
       <c r="Z29" t="s">
         <v>397</v>
@@ -11020,7 +11034,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -11084,8 +11098,8 @@
       <c r="U30" t="s">
         <v>14</v>
       </c>
-      <c r="Y30" t="s">
-        <v>397</v>
+      <c r="Y30">
+        <v>900</v>
       </c>
       <c r="Z30" t="s">
         <v>397</v>
@@ -11094,7 +11108,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>131</v>
       </c>
@@ -11158,8 +11172,8 @@
       <c r="U31" t="s">
         <v>14</v>
       </c>
-      <c r="Y31" t="s">
-        <v>397</v>
+      <c r="Y31">
+        <v>900</v>
       </c>
       <c r="Z31" t="s">
         <v>397</v>
@@ -11168,7 +11182,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>135</v>
       </c>
@@ -11232,8 +11246,8 @@
       <c r="U32" t="s">
         <v>14</v>
       </c>
-      <c r="Y32" t="s">
-        <v>397</v>
+      <c r="Y32">
+        <v>900</v>
       </c>
       <c r="Z32" t="s">
         <v>397</v>
@@ -11242,7 +11256,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -11306,8 +11320,8 @@
       <c r="U33" t="s">
         <v>14</v>
       </c>
-      <c r="Y33" t="s">
-        <v>413</v>
+      <c r="Y33">
+        <v>1350</v>
       </c>
       <c r="Z33" t="s">
         <v>413</v>
@@ -11316,7 +11330,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -11380,8 +11394,8 @@
       <c r="U34" t="s">
         <v>14</v>
       </c>
-      <c r="Y34" t="s">
-        <v>413</v>
+      <c r="Y34">
+        <v>1350</v>
       </c>
       <c r="Z34" t="s">
         <v>413</v>
@@ -11390,7 +11404,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -11454,8 +11468,8 @@
       <c r="U35" t="s">
         <v>14</v>
       </c>
-      <c r="Y35" t="s">
-        <v>413</v>
+      <c r="Y35">
+        <v>1350</v>
       </c>
       <c r="Z35" t="s">
         <v>413</v>
@@ -11464,7 +11478,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -11528,8 +11542,8 @@
       <c r="U36" t="s">
         <v>14</v>
       </c>
-      <c r="Y36" t="s">
-        <v>413</v>
+      <c r="Y36">
+        <v>1350</v>
       </c>
       <c r="Z36" t="s">
         <v>413</v>
@@ -11538,7 +11552,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>157</v>
       </c>
@@ -11602,8 +11616,8 @@
       <c r="U37" t="s">
         <v>14</v>
       </c>
-      <c r="Y37" t="s">
-        <v>397</v>
+      <c r="Y37">
+        <v>900</v>
       </c>
       <c r="Z37" t="s">
         <v>397</v>
@@ -11612,7 +11626,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -11676,8 +11690,8 @@
       <c r="U38" t="s">
         <v>14</v>
       </c>
-      <c r="Y38" t="s">
-        <v>413</v>
+      <c r="Y38">
+        <v>1350</v>
       </c>
       <c r="Z38" t="s">
         <v>413</v>
@@ -11686,7 +11700,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>166</v>
       </c>
@@ -11750,8 +11764,8 @@
       <c r="U39" t="s">
         <v>14</v>
       </c>
-      <c r="Y39" t="s">
-        <v>397</v>
+      <c r="Y39">
+        <v>900</v>
       </c>
       <c r="Z39" t="s">
         <v>397</v>
@@ -11760,7 +11774,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>170</v>
       </c>
@@ -11824,8 +11838,8 @@
       <c r="U40" t="s">
         <v>14</v>
       </c>
-      <c r="Y40" t="s">
-        <v>413</v>
+      <c r="Y40">
+        <v>1350</v>
       </c>
       <c r="Z40" t="s">
         <v>413</v>
@@ -11834,7 +11848,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -11898,8 +11912,8 @@
       <c r="U41" t="s">
         <v>14</v>
       </c>
-      <c r="Y41" t="s">
-        <v>397</v>
+      <c r="Y41">
+        <v>900</v>
       </c>
       <c r="Z41" t="s">
         <v>397</v>
@@ -11908,7 +11922,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>523</v>
       </c>
@@ -11972,8 +11986,8 @@
       <c r="U42" t="s">
         <v>14</v>
       </c>
-      <c r="Y42" t="s">
-        <v>413</v>
+      <c r="Y42">
+        <v>1350</v>
       </c>
       <c r="Z42" t="s">
         <v>413</v>
@@ -11982,7 +11996,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>526</v>
       </c>
@@ -12046,8 +12060,8 @@
       <c r="U43" t="s">
         <v>14</v>
       </c>
-      <c r="Y43" t="s">
-        <v>397</v>
+      <c r="Y43">
+        <v>900</v>
       </c>
       <c r="Z43" t="s">
         <v>397</v>
@@ -12056,7 +12070,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>530</v>
       </c>
@@ -12120,8 +12134,8 @@
       <c r="U44" t="s">
         <v>14</v>
       </c>
-      <c r="Y44" t="s">
-        <v>397</v>
+      <c r="Y44">
+        <v>900</v>
       </c>
       <c r="Z44" t="s">
         <v>397</v>
@@ -12130,7 +12144,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>533</v>
       </c>
@@ -12194,8 +12208,8 @@
       <c r="U45" t="s">
         <v>14</v>
       </c>
-      <c r="Y45" t="s">
-        <v>397</v>
+      <c r="Y45">
+        <v>900</v>
       </c>
       <c r="Z45" t="s">
         <v>397</v>
@@ -12204,7 +12218,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>537</v>
       </c>
@@ -12268,8 +12282,8 @@
       <c r="U46" t="s">
         <v>14</v>
       </c>
-      <c r="Y46" t="s">
-        <v>397</v>
+      <c r="Y46">
+        <v>900</v>
       </c>
       <c r="Z46" t="s">
         <v>397</v>
@@ -12278,7 +12292,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>540</v>
       </c>
@@ -12342,8 +12356,8 @@
       <c r="U47" t="s">
         <v>14</v>
       </c>
-      <c r="Y47" t="s">
-        <v>432</v>
+      <c r="Y47">
+        <v>1800</v>
       </c>
       <c r="Z47" t="s">
         <v>432</v>
@@ -12355,7 +12369,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AA47" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:AA1 A2:X47 Z2:AA47" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -12366,9 +12380,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12382,7 +12396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -12396,7 +12410,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -12424,9 +12438,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12512,7 +12526,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -12598,7 +12612,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -12684,7 +12698,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -12770,7 +12784,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -12856,7 +12870,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -12942,7 +12956,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -13028,7 +13042,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -13114,7 +13128,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -13200,7 +13214,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -13286,7 +13300,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>

--- a/jwang/case/ieee39_ev2.xlsx
+++ b/jwang/case/ieee39_ev2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jwang175\.ssh\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A36B9E8D-6B80-4A15-ABC4-AC24E89A1243}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453470DD-850A-48E9-9658-D6384E6BD161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3305" uniqueCount="771">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3293" uniqueCount="771">
   <si>
     <t>uid</t>
   </si>
@@ -2740,9 +2740,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>119</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>131</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>135</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>157</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>166</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>170</v>
       </c>
@@ -4514,11 +4514,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4562,7 +4564,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -4593,8 +4595,8 @@
       <c r="J2" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
-        <v>627</v>
+      <c r="K2">
+        <v>0.8</v>
       </c>
       <c r="L2" t="s">
         <v>15</v>
@@ -4606,7 +4608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -4637,8 +4639,8 @@
       <c r="J3" t="s">
         <v>14</v>
       </c>
-      <c r="K3" t="s">
-        <v>627</v>
+      <c r="K3">
+        <v>0.8</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
@@ -4650,7 +4652,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -4681,8 +4683,8 @@
       <c r="J4" t="s">
         <v>14</v>
       </c>
-      <c r="K4" t="s">
-        <v>627</v>
+      <c r="K4">
+        <v>0.8</v>
       </c>
       <c r="L4" t="s">
         <v>15</v>
@@ -4694,7 +4696,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -4725,8 +4727,8 @@
       <c r="J5" t="s">
         <v>14</v>
       </c>
-      <c r="K5" t="s">
-        <v>627</v>
+      <c r="K5">
+        <v>0.8</v>
       </c>
       <c r="L5" t="s">
         <v>15</v>
@@ -4738,7 +4740,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -4769,8 +4771,8 @@
       <c r="J6" t="s">
         <v>14</v>
       </c>
-      <c r="K6" t="s">
-        <v>627</v>
+      <c r="K6">
+        <v>0.8</v>
       </c>
       <c r="L6" t="s">
         <v>15</v>
@@ -4782,7 +4784,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -4813,8 +4815,8 @@
       <c r="J7" t="s">
         <v>14</v>
       </c>
-      <c r="K7" t="s">
-        <v>627</v>
+      <c r="K7">
+        <v>0.8</v>
       </c>
       <c r="L7" t="s">
         <v>15</v>
@@ -4826,7 +4828,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -4857,8 +4859,8 @@
       <c r="J8" t="s">
         <v>14</v>
       </c>
-      <c r="K8" t="s">
-        <v>627</v>
+      <c r="K8">
+        <v>0.8</v>
       </c>
       <c r="L8" t="s">
         <v>15</v>
@@ -4870,7 +4872,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -4901,8 +4903,8 @@
       <c r="J9" t="s">
         <v>14</v>
       </c>
-      <c r="K9" t="s">
-        <v>627</v>
+      <c r="K9">
+        <v>0.8</v>
       </c>
       <c r="L9" t="s">
         <v>15</v>
@@ -4914,7 +4916,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -4945,8 +4947,8 @@
       <c r="J10" t="s">
         <v>14</v>
       </c>
-      <c r="K10" t="s">
-        <v>627</v>
+      <c r="K10">
+        <v>0.8</v>
       </c>
       <c r="L10" t="s">
         <v>15</v>
@@ -4958,7 +4960,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -4989,8 +4991,8 @@
       <c r="J11" t="s">
         <v>14</v>
       </c>
-      <c r="K11" t="s">
-        <v>627</v>
+      <c r="K11">
+        <v>0.8</v>
       </c>
       <c r="L11" t="s">
         <v>15</v>
@@ -5005,7 +5007,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:N11" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:N1 A3:J11 A2:J2 L2:N2 L3:N11" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -5016,9 +5018,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5080,7 +5082,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -5142,7 +5144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -5204,7 +5206,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="4" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -5266,7 +5268,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="5" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -5328,7 +5330,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -5390,7 +5392,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -5452,7 +5454,7 @@
         <v>689</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -5514,7 +5516,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="9" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -5576,7 +5578,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -5638,7 +5640,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="11" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -5714,9 +5716,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5793,7 +5795,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="2" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -5867,7 +5869,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -5941,7 +5943,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -6015,7 +6017,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -6089,7 +6091,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -6163,7 +6165,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -6237,7 +6239,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -6311,7 +6313,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -6385,7 +6387,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -6459,7 +6461,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:25" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -6547,9 +6549,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6575,7 +6577,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -6601,7 +6603,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -6627,7 +6629,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -6653,7 +6655,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -6679,7 +6681,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -6705,7 +6707,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -6731,7 +6733,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -6757,7 +6759,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -6783,7 +6785,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -6809,7 +6811,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -6849,9 +6851,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6874,7 +6876,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -6911,9 +6913,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6936,7 +6938,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -6973,9 +6975,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6989,7 +6991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -7017,9 +7019,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7054,7 +7056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -7089,7 +7091,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -7124,7 +7126,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -7159,7 +7161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -7194,7 +7196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -7229,7 +7231,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -7264,7 +7266,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -7299,7 +7301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -7334,7 +7336,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -7369,7 +7371,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -7404,7 +7406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -7439,7 +7441,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -7474,7 +7476,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -7509,7 +7511,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -7544,7 +7546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -7579,7 +7581,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -7614,7 +7616,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -7649,7 +7651,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -7684,7 +7686,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -7733,9 +7735,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7794,7 +7796,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -7850,7 +7852,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -7906,7 +7908,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -7962,7 +7964,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -8018,7 +8020,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -8074,7 +8076,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -8130,7 +8132,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -8186,7 +8188,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -8242,7 +8244,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -8298,7 +8300,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>46</v>
       </c>
@@ -8366,11 +8368,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AS2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AP4" sqref="AP4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:45" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8507,7 +8511,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="2" spans="1:45" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -8625,11 +8629,11 @@
       <c r="AN2" t="s">
         <v>14</v>
       </c>
-      <c r="AO2" t="s">
-        <v>390</v>
-      </c>
-      <c r="AP2" t="s">
-        <v>390</v>
+      <c r="AO2">
+        <v>0.05</v>
+      </c>
+      <c r="AP2">
+        <v>0.05</v>
       </c>
       <c r="AQ2" t="s">
         <v>391</v>
@@ -8644,7 +8648,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:AS2" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:AS1 A2:AN2 AQ2:AS2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -8655,9 +8659,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8719,7 +8723,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:20" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -8792,9 +8796,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8826,7 +8830,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -8858,7 +8862,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -8902,13 +8906,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AA47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AB8" sqref="AB8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8991,7 +8995,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -9065,7 +9069,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -9139,7 +9143,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -9213,7 +9217,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -9287,7 +9291,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -9361,7 +9365,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -9435,7 +9439,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -9509,7 +9513,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -9583,7 +9587,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="10" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -9657,7 +9661,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -9731,7 +9735,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>54</v>
       </c>
@@ -9805,7 +9809,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>58</v>
       </c>
@@ -9879,7 +9883,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>62</v>
       </c>
@@ -9953,7 +9957,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>67</v>
       </c>
@@ -10027,7 +10031,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>71</v>
       </c>
@@ -10101,7 +10105,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="17" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>75</v>
       </c>
@@ -10175,7 +10179,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="18" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>79</v>
       </c>
@@ -10249,7 +10253,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>83</v>
       </c>
@@ -10323,7 +10327,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>87</v>
       </c>
@@ -10397,7 +10401,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>91</v>
       </c>
@@ -10471,7 +10475,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>95</v>
       </c>
@@ -10545,7 +10549,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>99</v>
       </c>
@@ -10619,7 +10623,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>103</v>
       </c>
@@ -10693,7 +10697,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>107</v>
       </c>
@@ -10767,7 +10771,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>111</v>
       </c>
@@ -10841,7 +10845,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>115</v>
       </c>
@@ -10915,7 +10919,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>119</v>
       </c>
@@ -10989,7 +10993,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>123</v>
       </c>
@@ -11063,7 +11067,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="30" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -11137,7 +11141,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>131</v>
       </c>
@@ -11211,7 +11215,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>135</v>
       </c>
@@ -11285,7 +11289,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="33" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>140</v>
       </c>
@@ -11359,7 +11363,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="34" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -11433,7 +11437,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="35" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>148</v>
       </c>
@@ -11507,7 +11511,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="36" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>152</v>
       </c>
@@ -11581,7 +11585,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="37" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>157</v>
       </c>
@@ -11655,7 +11659,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="38" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>161</v>
       </c>
@@ -11729,7 +11733,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="39" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>166</v>
       </c>
@@ -11803,7 +11807,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="40" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>170</v>
       </c>
@@ -11877,7 +11881,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="41" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>174</v>
       </c>
@@ -11951,7 +11955,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="42" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>551</v>
       </c>
@@ -12025,7 +12029,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="43" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>554</v>
       </c>
@@ -12099,7 +12103,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="44" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>558</v>
       </c>
@@ -12173,7 +12177,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="45" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>561</v>
       </c>
@@ -12247,7 +12251,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="46" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>565</v>
       </c>
@@ -12321,7 +12325,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="47" spans="1:27" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>568</v>
       </c>
@@ -12409,9 +12413,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12425,7 +12429,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -12439,7 +12443,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -12467,9 +12471,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12555,7 +12559,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -12641,7 +12645,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -12727,7 +12731,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -12813,7 +12817,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -12899,7 +12903,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -12985,7 +12989,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>34</v>
       </c>
@@ -13071,7 +13075,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>38</v>
       </c>
@@ -13157,7 +13161,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -13243,7 +13247,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>46</v>
       </c>
@@ -13329,7 +13333,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>50</v>
       </c>

--- a/jwang/case/ieee39_ev2.xlsx
+++ b/jwang/case/ieee39_ev2.xlsx
@@ -5912,10 +5912,10 @@
         <v>3.64</v>
       </c>
       <c r="M10" t="str">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="N10" t="str">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="O10" t="str">
         <v>1.052803</v>

--- a/jwang/case/ieee39_ev2.xlsx
+++ b/jwang/case/ieee39_ev2.xlsx
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="str">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L2" t="str">
         <v>1</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="str">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L3" t="str">
         <v>1</v>
@@ -2333,7 +2333,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="str">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L4" t="str">
         <v>1</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="str">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L5" t="str">
         <v>1</v>
@@ -2421,7 +2421,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="str">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L6" t="str">
         <v>1</v>
@@ -2465,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="str">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L7" t="str">
         <v>1</v>
@@ -2509,7 +2509,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="str">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L8" t="str">
         <v>1</v>
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="str">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L9" t="str">
         <v>1</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="str">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L10" t="str">
         <v>1</v>
@@ -2641,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="str">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="L11" t="str">
         <v>1</v>
@@ -4714,7 +4714,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="str">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="I2" t="str">
         <v>1.2</v>
@@ -4749,7 +4749,7 @@
         <v>4.5</v>
       </c>
       <c r="H3" t="str">
-        <v>1.84</v>
+        <v>1.2</v>
       </c>
       <c r="I3" t="str">
         <v>1.2</v>
@@ -4784,7 +4784,7 @@
         <v>2.338</v>
       </c>
       <c r="H4" t="str">
-        <v>0.84</v>
+        <v>0.6</v>
       </c>
       <c r="I4" t="str">
         <v>1.2</v>
@@ -4819,7 +4819,7 @@
         <v>5.22</v>
       </c>
       <c r="H5" t="str">
-        <v>1.766</v>
+        <v>1.2</v>
       </c>
       <c r="I5" t="str">
         <v>1.2</v>
@@ -4889,7 +4889,7 @@
         <v>3.2</v>
       </c>
       <c r="H7" t="str">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="I7" t="str">
         <v>1.2</v>
@@ -5274,7 +5274,7 @@
         <v>2.835</v>
       </c>
       <c r="H18" t="str">
-        <v>1.269</v>
+        <v>1.1</v>
       </c>
       <c r="I18" t="str">
         <v>1.2</v>
@@ -5344,7 +5344,7 @@
         <v>4</v>
       </c>
       <c r="H20" t="str">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="I20" t="str">
         <v>1.2</v>
@@ -6259,10 +6259,10 @@
         <v>0</v>
       </c>
       <c r="AO2" t="str">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AP2" t="str">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="AQ2" t="str">
         <v>0.1</v>

--- a/jwang/case/ieee39_ev2.xlsx
+++ b/jwang/case/ieee39_ev2.xlsx
@@ -4714,7 +4714,7 @@
         <v>6</v>
       </c>
       <c r="H2" t="str">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="I2" t="str">
         <v>1.2</v>
@@ -4749,7 +4749,7 @@
         <v>4.5</v>
       </c>
       <c r="H3" t="str">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="str">
         <v>1.2</v>
@@ -4819,7 +4819,7 @@
         <v>5.22</v>
       </c>
       <c r="H5" t="str">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="str">
         <v>1.2</v>
@@ -4889,7 +4889,7 @@
         <v>3.2</v>
       </c>
       <c r="H7" t="str">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="I7" t="str">
         <v>1.2</v>
@@ -5099,7 +5099,7 @@
         <v>3.086</v>
       </c>
       <c r="H13" t="str">
-        <v>-0.922</v>
+        <v>0</v>
       </c>
       <c r="I13" t="str">
         <v>1.2</v>
@@ -5912,10 +5912,10 @@
         <v>3.64</v>
       </c>
       <c r="M10" t="str">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="N10" t="str">
-        <v>-40</v>
+        <v>-1000</v>
       </c>
       <c r="O10" t="str">
         <v>1.052803</v>
@@ -5968,10 +5968,10 @@
         <v>-1.2</v>
       </c>
       <c r="M11" t="str">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="N11" t="str">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="O11" t="str">
         <v>1.052803</v>

--- a/jwang/case/ieee39_ev2.xlsx
+++ b/jwang/case/ieee39_ev2.xlsx
@@ -5968,10 +5968,10 @@
         <v>-1.2</v>
       </c>
       <c r="M11" t="str">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="N11" t="str">
-        <v>-20</v>
+        <v>-1000</v>
       </c>
       <c r="O11" t="str">
         <v>1.052803</v>

--- a/jwang/case/ieee39_ev2.xlsx
+++ b/jwang/case/ieee39_ev2.xlsx
@@ -5511,7 +5511,7 @@
         <v>6.45999998</v>
       </c>
       <c r="J3" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K3" t="str">
         <v>6.46</v>
@@ -5567,7 +5567,7 @@
         <v>7.24999998</v>
       </c>
       <c r="J4" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4" t="str">
         <v>7.25</v>
@@ -5623,7 +5623,7 @@
         <v>6.51999998</v>
       </c>
       <c r="J5" t="str">
-        <v>1.5806</v>
+        <v>1</v>
       </c>
       <c r="K5" t="str">
         <v>6.52</v>
@@ -5679,7 +5679,7 @@
         <v>5.07999998</v>
       </c>
       <c r="J6" t="str">
-        <v>1.5854</v>
+        <v>1</v>
       </c>
       <c r="K6" t="str">
         <v>5.08</v>
@@ -5735,7 +5735,7 @@
         <v>6.86999998</v>
       </c>
       <c r="J7" t="str">
-        <v>2.5777</v>
+        <v>1</v>
       </c>
       <c r="K7" t="str">
         <v>6.87</v>
@@ -5791,7 +5791,7 @@
         <v>5.79999998</v>
       </c>
       <c r="J8" t="str">
-        <v>0.7876</v>
+        <v>0.1</v>
       </c>
       <c r="K8" t="str">
         <v>5.8</v>
@@ -5903,7 +5903,7 @@
         <v>7.64783381</v>
       </c>
       <c r="J10" t="str">
-        <v>1.428</v>
+        <v>0.5</v>
       </c>
       <c r="K10" t="str">
         <v>8.65</v>
@@ -5912,10 +5912,10 @@
         <v>3.64</v>
       </c>
       <c r="M10" t="str">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N10" t="str">
-        <v>-1000</v>
+        <v>-2000</v>
       </c>
       <c r="O10" t="str">
         <v>1.052803</v>
@@ -5968,10 +5968,10 @@
         <v>-1.2</v>
       </c>
       <c r="M11" t="str">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="N11" t="str">
-        <v>-1000</v>
+        <v>-2000</v>
       </c>
       <c r="O11" t="str">
         <v>1.052803</v>

--- a/jwang/case/ieee39_ev2.xlsx
+++ b/jwang/case/ieee39_ev2.xlsx
@@ -5344,7 +5344,7 @@
         <v>4</v>
       </c>
       <c r="H20" t="str">
-        <v>1.8</v>
+        <v>0</v>
       </c>
       <c r="I20" t="str">
         <v>1.2</v>

--- a/jwang/case/ieee39_ev2.xlsx
+++ b/jwang/case/ieee39_ev2.xlsx
@@ -5511,7 +5511,7 @@
         <v>6.45999998</v>
       </c>
       <c r="J3" t="str">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K3" t="str">
         <v>6.46</v>
@@ -5567,7 +5567,7 @@
         <v>7.24999998</v>
       </c>
       <c r="J4" t="str">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K4" t="str">
         <v>7.25</v>
@@ -5623,7 +5623,7 @@
         <v>6.51999998</v>
       </c>
       <c r="J5" t="str">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="K5" t="str">
         <v>6.52</v>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11" t="str">
         <v>PV_10</v>

--- a/jwang/case/ieee39_ev2.xlsx
+++ b/jwang/case/ieee39_ev2.xlsx
@@ -5903,7 +5903,7 @@
         <v>7.64783381</v>
       </c>
       <c r="J10" t="str">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="K10" t="str">
         <v>8.65</v>
@@ -5968,10 +5968,10 @@
         <v>-1.2</v>
       </c>
       <c r="M11" t="str">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="N11" t="str">
-        <v>-2000</v>
+        <v>0</v>
       </c>
       <c r="O11" t="str">
         <v>1.052803</v>

--- a/jwang/case/ieee39_ev2.xlsx
+++ b/jwang/case/ieee39_ev2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinningwang/Documents/work/andes/jwang/case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C653497-ECD1-2A41-A934-70F43667D53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C11742A-5909-644A-AE23-AC3B445C2871}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="4100" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27320" yWindow="-1980" windowWidth="27320" windowHeight="19980" firstSheet="1" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -6521,7 +6521,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -6823,7 +6825,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -6947,7 +6951,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -6991,7 +6997,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView zoomScale="135" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -7709,7 +7715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="116" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -8344,7 +8350,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AS2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -12441,7 +12449,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
